--- a/Results/Act/Lifetime/Results_world_act_life_Max.xlsx
+++ b/Results/Act/Lifetime/Results_world_act_life_Max.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Crit_met_world" sheetId="1" r:id="rId1"/>
+    <sheet name="Annual production" sheetId="1" r:id="rId1"/>
+    <sheet name="Cumulative" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>World</t>
   </si>
@@ -678,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.027438509405</v>
+        <v>262.0274379424926</v>
       </c>
       <c r="E2">
-        <v>302.6159376213466</v>
+        <v>302.6159365732591</v>
       </c>
       <c r="F2">
-        <v>500.2321545142109</v>
+        <v>500.2321524285682</v>
       </c>
       <c r="G2">
-        <v>370.6084120110489</v>
+        <v>370.6084081156198</v>
       </c>
       <c r="H2">
-        <v>949.0000113901518</v>
+        <v>949.0000054727121</v>
       </c>
       <c r="I2">
-        <v>545.2813554619738</v>
+        <v>545.2813449889029</v>
       </c>
       <c r="J2">
-        <v>608.4922620119863</v>
+        <v>608.4922434758764</v>
       </c>
       <c r="K2">
-        <v>699.8867176874309</v>
+        <v>699.8866845456396</v>
       </c>
       <c r="L2">
-        <v>557.8272814944046</v>
+        <v>557.8272273071105</v>
       </c>
       <c r="M2">
-        <v>684.401209353769</v>
+        <v>684.4011090925799</v>
       </c>
       <c r="N2">
-        <v>346.8629976738983</v>
+        <v>346.8627889481101</v>
       </c>
       <c r="O2">
-        <v>384.620636994277</v>
+        <v>384.6202105390444</v>
       </c>
       <c r="P2">
-        <v>771.7067967709971</v>
+        <v>771.7056794139156</v>
       </c>
       <c r="Q2">
-        <v>778.5456881937806</v>
+        <v>778.5427941436629</v>
       </c>
       <c r="R2">
-        <v>788.4358910396006</v>
+        <v>788.428571454627</v>
       </c>
       <c r="S2">
-        <v>1985.556492054784</v>
+        <v>1985.540193858538</v>
       </c>
       <c r="T2">
-        <v>2004.903367880938</v>
+        <v>2004.875708220344</v>
       </c>
       <c r="U2">
-        <v>2013.312513061772</v>
+        <v>2013.282962944706</v>
       </c>
       <c r="V2">
-        <v>2006.198521479066</v>
+        <v>2006.180112384873</v>
       </c>
       <c r="W2">
-        <v>2004.634874360352</v>
+        <v>2004.623033956026</v>
       </c>
       <c r="X2">
-        <v>1845.438450374494</v>
+        <v>1845.420343989407</v>
       </c>
       <c r="Y2">
-        <v>1862.475201803868</v>
+        <v>1862.447895847545</v>
       </c>
       <c r="Z2">
-        <v>1881.178820496594</v>
+        <v>1881.140951503823</v>
       </c>
       <c r="AA2">
-        <v>1905.274502401093</v>
+        <v>1905.221584297403</v>
       </c>
       <c r="AB2">
-        <v>1925.613622441502</v>
+        <v>1925.548822457793</v>
       </c>
       <c r="AC2">
-        <v>597.0257256076628</v>
+        <v>596.9511929558928</v>
       </c>
       <c r="AD2">
-        <v>645.7692520550634</v>
+        <v>645.6593640596743</v>
       </c>
       <c r="AE2">
-        <v>737.2466677189699</v>
+        <v>737.0658097406789</v>
       </c>
       <c r="AF2">
-        <v>844.1495323525896</v>
+        <v>843.884897618356</v>
       </c>
       <c r="AG2">
-        <v>958.8979269932064</v>
+        <v>958.5430728167483</v>
       </c>
       <c r="AH2">
-        <v>798.2199340737276</v>
+        <v>797.8489973853962</v>
       </c>
       <c r="AI2">
-        <v>747.0549887372325</v>
+        <v>746.7328346064758</v>
       </c>
       <c r="AJ2">
-        <v>743.1611374488917</v>
+        <v>742.848625396488</v>
       </c>
       <c r="AK2">
-        <v>723.1829447359677</v>
+        <v>722.8938500247309</v>
       </c>
       <c r="AL2">
-        <v>690.6402121001865</v>
+        <v>690.3854196655719</v>
       </c>
       <c r="AM2">
-        <v>659.7320898384941</v>
+        <v>659.5107010546948</v>
       </c>
       <c r="AN2">
-        <v>707.3296795065033</v>
+        <v>707.0765708684798</v>
       </c>
       <c r="AO2">
-        <v>885.0408610358575</v>
+        <v>884.6478207742946</v>
       </c>
       <c r="AP2">
-        <v>1094.026239064926</v>
+        <v>1093.467524089844</v>
       </c>
       <c r="AQ2">
-        <v>1369.44872945273</v>
+        <v>1368.669045487168</v>
       </c>
       <c r="AR2">
-        <v>1773.472933577493</v>
+        <v>1772.365055769278</v>
       </c>
       <c r="AS2">
-        <v>2059.204473009796</v>
+        <v>2057.867277345538</v>
       </c>
       <c r="AT2">
-        <v>2104.781390388284</v>
+        <v>2103.415440470046</v>
       </c>
       <c r="AU2">
-        <v>2096.208641013398</v>
+        <v>2094.858676987339</v>
       </c>
       <c r="AV2">
-        <v>2076.392449734849</v>
+        <v>2075.075804308584</v>
       </c>
       <c r="AW2">
-        <v>2031.107267237771</v>
+        <v>2029.838557545556</v>
       </c>
       <c r="AX2">
-        <v>2209.728548146743</v>
+        <v>2208.497225708877</v>
       </c>
       <c r="AY2">
-        <v>2178.913298600226</v>
+        <v>2177.713110587016</v>
       </c>
       <c r="AZ2">
-        <v>2077.371536487</v>
+        <v>2076.260539916232</v>
       </c>
       <c r="BA2">
-        <v>1821.817369618942</v>
+        <v>1820.923413910406</v>
       </c>
       <c r="BB2">
-        <v>1390.5952841595</v>
+        <v>1390.042732003333</v>
       </c>
       <c r="BC2">
-        <v>1135.545198949736</v>
+        <v>1135.208614399103</v>
       </c>
       <c r="BD2">
-        <v>1160.792515133274</v>
+        <v>1160.437258259747</v>
       </c>
       <c r="BE2">
-        <v>1225.812664057679</v>
+        <v>1225.405508487435</v>
       </c>
       <c r="BF2">
-        <v>1252.224577903399</v>
+        <v>1251.798069186615</v>
       </c>
       <c r="BG2">
-        <v>1190.229752491386</v>
+        <v>1189.836598894381</v>
       </c>
       <c r="BH2">
-        <v>1133.902441372507</v>
+        <v>1133.56062518213</v>
       </c>
       <c r="BI2">
-        <v>1105.229642125412</v>
+        <v>1104.916830973195</v>
       </c>
       <c r="BJ2">
-        <v>1088.300473349863</v>
+        <v>1088.007696091246</v>
       </c>
       <c r="BK2">
-        <v>1078.808273828315</v>
+        <v>1078.530123046647</v>
       </c>
       <c r="BL2">
-        <v>1079.637243613383</v>
+        <v>1079.349504199784</v>
       </c>
       <c r="BM2">
-        <v>1163.185657864889</v>
+        <v>1162.8364526521</v>
       </c>
       <c r="BN2">
-        <v>1327.090754254089</v>
+        <v>1326.61347673032</v>
       </c>
       <c r="BO2">
-        <v>1556.333639266168</v>
+        <v>1555.674101150582</v>
       </c>
       <c r="BP2">
-        <v>1828.542929960992</v>
+        <v>1827.665504959881</v>
       </c>
       <c r="BQ2">
-        <v>2097.580218359234</v>
+        <v>2096.476576119128</v>
       </c>
       <c r="BR2">
-        <v>2313.947331784887</v>
+        <v>2312.673199961796</v>
       </c>
       <c r="BS2">
-        <v>2409.8158543239</v>
+        <v>2408.471994842441</v>
       </c>
       <c r="BT2">
-        <v>2423.588802665494</v>
+        <v>2422.243745319309</v>
       </c>
       <c r="BU2">
-        <v>2418.096225527749</v>
+        <v>2416.765842865221</v>
       </c>
       <c r="BV2">
-        <v>2411.811731059157</v>
+        <v>2410.485419461037</v>
       </c>
       <c r="BW2">
-        <v>2433.219232043593</v>
+        <v>2431.884709026078</v>
       </c>
       <c r="BX2">
-        <v>2403.311018594708</v>
+        <v>2402.010700683731</v>
       </c>
       <c r="BY2">
-        <v>2264.98540508053</v>
+        <v>2263.809415271548</v>
       </c>
       <c r="BZ2">
-        <v>2037.757150852979</v>
+        <v>2036.779272237575</v>
       </c>
       <c r="CA2">
-        <v>1763.226504051305</v>
+        <v>1762.474307678028</v>
       </c>
       <c r="CB2">
-        <v>1579.6175235157</v>
+        <v>1579.026332289829</v>
       </c>
       <c r="CC2">
-        <v>1531.706923982647</v>
+        <v>1531.162819130985</v>
       </c>
       <c r="CD2">
-        <v>1554.546971523567</v>
+        <v>1553.990445445803</v>
       </c>
       <c r="CE2">
-        <v>1564.65237993684</v>
+        <v>1564.093853497217</v>
       </c>
       <c r="CF2">
-        <v>1524.404505651178</v>
+        <v>1523.873113817788</v>
       </c>
       <c r="CG2">
-        <v>1486.217064648801</v>
+        <v>1485.724499081177</v>
       </c>
       <c r="CH2">
-        <v>1459.858496145573</v>
+        <v>1459.395032553011</v>
       </c>
       <c r="CI2">
-        <v>1450.603224719421</v>
+        <v>1450.154840060701</v>
       </c>
       <c r="CJ2">
-        <v>1461.413986365759</v>
+        <v>1460.964258765303</v>
       </c>
       <c r="CK2">
-        <v>1485.430038069464</v>
+        <v>1484.950572750357</v>
       </c>
       <c r="CL2">
-        <v>1587.846605644491</v>
+        <v>1587.290583698456</v>
       </c>
       <c r="CM2">
-        <v>1755.786715460516</v>
+        <v>1755.099798857897</v>
       </c>
       <c r="CN2">
-        <v>1974.40735863751</v>
+        <v>1973.547585948121</v>
       </c>
       <c r="CO2">
-        <v>2215.484649555471</v>
+        <v>2214.433599690741</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -955,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49064923571322</v>
+        <v>16.49064919837422</v>
       </c>
       <c r="E3">
-        <v>19.15930165815574</v>
+        <v>19.15930158912561</v>
       </c>
       <c r="F3">
-        <v>32.31295958553358</v>
+        <v>32.31295944817526</v>
       </c>
       <c r="G3">
-        <v>23.60785960385257</v>
+        <v>23.60785934736749</v>
       </c>
       <c r="H3">
-        <v>62.55387811519576</v>
+        <v>62.55387772592716</v>
       </c>
       <c r="I3">
-        <v>35.42701373551095</v>
+        <v>35.42701304856236</v>
       </c>
       <c r="J3">
-        <v>39.55998962957054</v>
+        <v>39.55998842413841</v>
       </c>
       <c r="K3">
-        <v>45.54519970046562</v>
+        <v>45.54519759462508</v>
       </c>
       <c r="L3">
-        <v>36.04889666501111</v>
+        <v>36.0488934134403</v>
       </c>
       <c r="M3">
-        <v>44.47697183880316</v>
+        <v>44.4769665308222</v>
       </c>
       <c r="N3">
-        <v>21.6578779976058</v>
+        <v>21.65786922911069</v>
       </c>
       <c r="O3">
-        <v>24.33729004009482</v>
+        <v>24.33727730879803</v>
       </c>
       <c r="P3">
-        <v>50.25008119707964</v>
+        <v>50.25005872001523</v>
       </c>
       <c r="Q3">
-        <v>52.98437057353863</v>
+        <v>52.9843324361967</v>
       </c>
       <c r="R3">
-        <v>55.97690289304694</v>
+        <v>55.97683781137984</v>
       </c>
       <c r="S3">
-        <v>150.6725653209405</v>
+        <v>150.6724676416256</v>
       </c>
       <c r="T3">
-        <v>158.5027714726418</v>
+        <v>158.5026620456505</v>
       </c>
       <c r="U3">
-        <v>165.5211192459509</v>
+        <v>165.5210257403637</v>
       </c>
       <c r="V3">
-        <v>171.2128758187999</v>
+        <v>171.2128043319518</v>
       </c>
       <c r="W3">
-        <v>177.3454079800224</v>
+        <v>177.345362102207</v>
       </c>
       <c r="X3">
-        <v>162.8178285000166</v>
+        <v>162.8177760761797</v>
       </c>
       <c r="Y3">
-        <v>164.2667702171904</v>
+        <v>164.2667107064588</v>
       </c>
       <c r="Z3">
-        <v>165.8679625929253</v>
+        <v>165.8678957384249</v>
       </c>
       <c r="AA3">
-        <v>167.9615984325688</v>
+        <v>167.961522384665</v>
       </c>
       <c r="AB3">
-        <v>169.7121183458362</v>
+        <v>169.7120339851988</v>
       </c>
       <c r="AC3">
-        <v>49.21272819911845</v>
+        <v>49.21263679892908</v>
       </c>
       <c r="AD3">
-        <v>53.55563825303089</v>
+        <v>53.55553657650978</v>
       </c>
       <c r="AE3">
-        <v>61.80227790844751</v>
+        <v>61.80216360903011</v>
       </c>
       <c r="AF3">
-        <v>71.4578697662557</v>
+        <v>71.45774003682166</v>
       </c>
       <c r="AG3">
-        <v>81.82990430932031</v>
+        <v>81.82975574466693</v>
       </c>
       <c r="AH3">
-        <v>67.17598741640495</v>
+        <v>67.17582187819954</v>
       </c>
       <c r="AI3">
-        <v>62.38809103166307</v>
+        <v>62.38790871213266</v>
       </c>
       <c r="AJ3">
-        <v>61.9179874039402</v>
+        <v>61.91778094866915</v>
       </c>
       <c r="AK3">
-        <v>59.97766729847222</v>
+        <v>59.97742646950103</v>
       </c>
       <c r="AL3">
-        <v>56.8883920014316</v>
+        <v>56.88810291351388</v>
       </c>
       <c r="AM3">
-        <v>53.9464910721384</v>
+        <v>53.94613581956795</v>
       </c>
       <c r="AN3">
-        <v>58.17428823690697</v>
+        <v>58.17383995082776</v>
       </c>
       <c r="AO3">
-        <v>74.28629912610597</v>
+        <v>74.28572987507006</v>
       </c>
       <c r="AP3">
-        <v>93.25401324168921</v>
+        <v>93.25330653388623</v>
       </c>
       <c r="AQ3">
-        <v>118.2889619796224</v>
+        <v>118.2880910731626</v>
       </c>
       <c r="AR3">
-        <v>155.0659949361457</v>
+        <v>155.0649228321124</v>
       </c>
       <c r="AS3">
-        <v>181.0390585495178</v>
+        <v>181.0378190460893</v>
       </c>
       <c r="AT3">
-        <v>185.0783943399361</v>
+        <v>185.0770583134518</v>
       </c>
       <c r="AU3">
-        <v>184.172988929204</v>
+        <v>184.1715822168485</v>
       </c>
       <c r="AV3">
-        <v>182.2298006556377</v>
+        <v>182.2283452181079</v>
       </c>
       <c r="AW3">
-        <v>177.9606373753558</v>
+        <v>177.9591596406291</v>
       </c>
       <c r="AX3">
-        <v>194.000864875041</v>
+        <v>193.9993863095798</v>
       </c>
       <c r="AY3">
-        <v>191.0609382102191</v>
+        <v>191.0594820771253</v>
       </c>
       <c r="AZ3">
-        <v>181.6632642992315</v>
+        <v>181.661872988627</v>
       </c>
       <c r="BA3">
-        <v>158.2007829094745</v>
+        <v>158.199518464405</v>
       </c>
       <c r="BB3">
-        <v>118.7031290799251</v>
+        <v>118.7020495533847</v>
       </c>
       <c r="BC3">
-        <v>95.27835815139382</v>
+        <v>95.27743978008874</v>
       </c>
       <c r="BD3">
-        <v>97.45519122079978</v>
+        <v>97.45437051300136</v>
       </c>
       <c r="BE3">
-        <v>103.2647246226812</v>
+        <v>103.2639921747264</v>
       </c>
       <c r="BF3">
-        <v>105.5471974856967</v>
+        <v>105.5465535544611</v>
       </c>
       <c r="BG3">
-        <v>99.76303293230804</v>
+        <v>99.76247449812806</v>
       </c>
       <c r="BH3">
-        <v>94.47596089816496</v>
+        <v>94.47547062328213</v>
       </c>
       <c r="BI3">
-        <v>91.71303109172214</v>
+        <v>91.71258177851013</v>
       </c>
       <c r="BJ3">
-        <v>90.02098785260301</v>
+        <v>90.02055601982306</v>
       </c>
       <c r="BK3">
-        <v>89.00633580493417</v>
+        <v>89.00589706220322</v>
       </c>
       <c r="BL3">
-        <v>88.93951451725351</v>
+        <v>88.93904253386552</v>
       </c>
       <c r="BM3">
-        <v>96.41279480651889</v>
+        <v>96.41226197918628</v>
       </c>
       <c r="BN3">
-        <v>111.224890214989</v>
+        <v>111.2242701232022</v>
       </c>
       <c r="BO3">
-        <v>132.0040748794437</v>
+        <v>132.003344917582</v>
       </c>
       <c r="BP3">
-        <v>156.7069872052629</v>
+        <v>156.7061291844507</v>
       </c>
       <c r="BQ3">
-        <v>181.118124010293</v>
+        <v>181.1171306132256</v>
       </c>
       <c r="BR3">
-        <v>200.7087465068645</v>
+        <v>200.7076339458179</v>
       </c>
       <c r="BS3">
-        <v>209.2938123295719</v>
+        <v>209.292613633253</v>
       </c>
       <c r="BT3">
-        <v>210.3810131370952</v>
+        <v>210.3797532793848</v>
       </c>
       <c r="BU3">
-        <v>209.7090760623958</v>
+        <v>209.7077656541838</v>
       </c>
       <c r="BV3">
-        <v>208.9651981260584</v>
+        <v>208.9638419562984</v>
       </c>
       <c r="BW3">
-        <v>210.7418409013254</v>
+        <v>210.740445445418</v>
       </c>
       <c r="BX3">
-        <v>207.8325822453871</v>
+        <v>207.8311727373085</v>
       </c>
       <c r="BY3">
-        <v>195.0221788983789</v>
+        <v>195.0207968165919</v>
       </c>
       <c r="BZ3">
-        <v>174.0930873498094</v>
+        <v>174.0917701532136</v>
       </c>
       <c r="CA3">
-        <v>148.8446122620356</v>
+        <v>148.8433835439912</v>
       </c>
       <c r="CB3">
-        <v>131.891551976333</v>
+        <v>131.8904058900965</v>
       </c>
       <c r="CC3">
-        <v>127.3333985637201</v>
+        <v>127.3323112683245</v>
       </c>
       <c r="CD3">
-        <v>129.2377954373408</v>
+        <v>129.2367551971173</v>
       </c>
       <c r="CE3">
-        <v>129.9791655515518</v>
+        <v>129.9781762696146</v>
       </c>
       <c r="CF3">
-        <v>126.1208810431916</v>
+        <v>126.1199470454795</v>
       </c>
       <c r="CG3">
-        <v>122.4388646714698</v>
+        <v>122.4379819161049</v>
       </c>
       <c r="CH3">
-        <v>119.836557331862</v>
+        <v>119.8357142896104</v>
       </c>
       <c r="CI3">
-        <v>118.7956221876648</v>
+        <v>118.7948052494215</v>
       </c>
       <c r="CJ3">
-        <v>119.5865708985118</v>
+        <v>119.5857647100402</v>
       </c>
       <c r="CK3">
-        <v>121.5873795919312</v>
+        <v>121.5865656523833</v>
       </c>
       <c r="CL3">
-        <v>130.7327391005694</v>
+        <v>130.7318953570895</v>
       </c>
       <c r="CM3">
-        <v>145.8621451319216</v>
+        <v>145.8612488329454</v>
       </c>
       <c r="CN3">
-        <v>165.6199150072458</v>
+        <v>165.6189471399971</v>
       </c>
       <c r="CO3">
-        <v>187.4281905528443</v>
+        <v>187.4271387535117</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1232,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474393.69659431</v>
+        <v>26474387.15107802</v>
       </c>
       <c r="E4">
-        <v>26777245.33048151</v>
+        <v>26777233.22951134</v>
       </c>
       <c r="F4">
-        <v>29376241.97772572</v>
+        <v>29376217.89879272</v>
       </c>
       <c r="G4">
-        <v>29467701.40552017</v>
+        <v>29467656.44331267</v>
       </c>
       <c r="H4">
-        <v>26832818.06188701</v>
+        <v>26832749.82087819</v>
       </c>
       <c r="I4">
-        <v>26319502.11082303</v>
+        <v>26319381.67613481</v>
       </c>
       <c r="J4">
-        <v>29027814.65902474</v>
+        <v>29027603.2828952</v>
       </c>
       <c r="K4">
-        <v>32848237.36919994</v>
+        <v>32847867.91636285</v>
       </c>
       <c r="L4">
-        <v>32625709.16558896</v>
+        <v>32625138.00333385</v>
       </c>
       <c r="M4">
-        <v>34706019.82690352</v>
+        <v>34705084.84108179</v>
       </c>
       <c r="N4">
-        <v>37559079.20801924</v>
+        <v>37557525.62608365</v>
       </c>
       <c r="O4">
-        <v>34842828.75980539</v>
+        <v>34840548.44552797</v>
       </c>
       <c r="P4">
-        <v>38689639.69739683</v>
+        <v>38685545.48552711</v>
       </c>
       <c r="Q4">
-        <v>39838682.50351328</v>
+        <v>39830989.21263755</v>
       </c>
       <c r="R4">
-        <v>40996129.26161269</v>
+        <v>40981324.77178311</v>
       </c>
       <c r="S4">
-        <v>45650297.70736871</v>
+        <v>45624738.35220082</v>
       </c>
       <c r="T4">
-        <v>46574304.99472751</v>
+        <v>46540369.16020796</v>
       </c>
       <c r="U4">
-        <v>47479839.38623869</v>
+        <v>47443583.68108291</v>
       </c>
       <c r="V4">
-        <v>48383524.3053128</v>
+        <v>48345066.273838</v>
       </c>
       <c r="W4">
-        <v>49289612.15340656</v>
+        <v>49246329.23952185</v>
       </c>
       <c r="X4">
-        <v>50465901.99759661</v>
+        <v>50416452.34727404</v>
       </c>
       <c r="Y4">
-        <v>51817039.3387346</v>
+        <v>51760914.35706254</v>
       </c>
       <c r="Z4">
-        <v>53168229.02311441</v>
+        <v>53105188.51341996</v>
       </c>
       <c r="AA4">
-        <v>54521997.59884071</v>
+        <v>54450294.84884323</v>
       </c>
       <c r="AB4">
-        <v>55874108.28535727</v>
+        <v>55794578.61370784</v>
       </c>
       <c r="AC4">
-        <v>55011904.71596425</v>
+        <v>54925754.88552427</v>
       </c>
       <c r="AD4">
-        <v>56370411.99667259</v>
+        <v>56274584.53073351</v>
       </c>
       <c r="AE4">
-        <v>57731388.853331</v>
+        <v>57623669.94651502</v>
       </c>
       <c r="AF4">
-        <v>59095668.89023119</v>
+        <v>58973411.72711165</v>
       </c>
       <c r="AG4">
-        <v>60463813.91749261</v>
+        <v>60323810.2332489</v>
       </c>
       <c r="AH4">
-        <v>61466824.82768506</v>
+        <v>61310852.40899279</v>
       </c>
       <c r="AI4">
-        <v>62852309.85650174</v>
+        <v>62680574.86570954</v>
       </c>
       <c r="AJ4">
-        <v>64244813.57467034</v>
+        <v>64050394.09323916</v>
       </c>
       <c r="AK4">
-        <v>65649003.45968832</v>
+        <v>65422257.91690966</v>
       </c>
       <c r="AL4">
-        <v>67069826.03546602</v>
+        <v>66797670.5223157</v>
       </c>
       <c r="AM4">
-        <v>68485796.63648666</v>
+        <v>68151349.91739938</v>
       </c>
       <c r="AN4">
-        <v>69937027.72178189</v>
+        <v>69514933.99580482</v>
       </c>
       <c r="AO4">
-        <v>71424710.05157134</v>
+        <v>70888606.53290659</v>
       </c>
       <c r="AP4">
-        <v>72932922.0838483</v>
+        <v>72267256.79404767</v>
       </c>
       <c r="AQ4">
-        <v>74479131.91514613</v>
+        <v>73658646.59393993</v>
       </c>
       <c r="AR4">
-        <v>76066613.2105116</v>
+        <v>75056331.84359257</v>
       </c>
       <c r="AS4">
-        <v>77602534.62709361</v>
+        <v>76434413.30571778</v>
       </c>
       <c r="AT4">
-        <v>79032322.69766034</v>
+        <v>77773357.61913842</v>
       </c>
       <c r="AU4">
-        <v>80428767.41580196</v>
+        <v>79103333.61647516</v>
       </c>
       <c r="AV4">
-        <v>82001000.82535224</v>
+        <v>80629781.92068826</v>
       </c>
       <c r="AW4">
-        <v>83489225.01753753</v>
+        <v>82097108.45940793</v>
       </c>
       <c r="AX4">
-        <v>85011011.68235946</v>
+        <v>83618178.83494794</v>
       </c>
       <c r="AY4">
-        <v>86400498.59719303</v>
+        <v>85028825.10787524</v>
       </c>
       <c r="AZ4">
-        <v>87737678.44261558</v>
+        <v>86427133.77064401</v>
       </c>
       <c r="BA4">
-        <v>88990501.36888276</v>
+        <v>87799655.4069034</v>
       </c>
       <c r="BB4">
-        <v>90208965.25885826</v>
+        <v>89192636.25534937</v>
       </c>
       <c r="BC4">
-        <v>91512290.0869066</v>
+        <v>90647948.02644295</v>
       </c>
       <c r="BD4">
-        <v>92916648.42458062</v>
+        <v>92144220.91134262</v>
       </c>
       <c r="BE4">
-        <v>94335162.97730996</v>
+        <v>93645759.58320251</v>
       </c>
       <c r="BF4">
-        <v>95750039.0767639</v>
+        <v>95143933.75094476</v>
       </c>
       <c r="BG4">
-        <v>97198253.60751225</v>
+        <v>96672646.46970063</v>
       </c>
       <c r="BH4">
-        <v>98706765.66107006</v>
+        <v>98245335.76734142</v>
       </c>
       <c r="BI4">
-        <v>100247615.3994783</v>
+        <v>99824730.35838246</v>
       </c>
       <c r="BJ4">
-        <v>101814415.3847692</v>
+        <v>101407962.8517179</v>
       </c>
       <c r="BK4">
-        <v>103408945.6319371</v>
+        <v>102995951.3706818</v>
       </c>
       <c r="BL4">
-        <v>105054228.9711945</v>
+        <v>104609875.9285424</v>
       </c>
       <c r="BM4">
-        <v>106765094.0323257</v>
+        <v>106263350.2472796</v>
       </c>
       <c r="BN4">
-        <v>108509809.5203767</v>
+        <v>107925748.6119896</v>
       </c>
       <c r="BO4">
-        <v>110284103.7396408</v>
+        <v>109596393.8649862</v>
       </c>
       <c r="BP4">
-        <v>112082794.5438632</v>
+        <v>111274268.0262758</v>
       </c>
       <c r="BQ4">
-        <v>113977464.1114044</v>
+        <v>113041222.4295538</v>
       </c>
       <c r="BR4">
-        <v>115867681.7439282</v>
+        <v>114819066.6257008</v>
       </c>
       <c r="BS4">
-        <v>117707017.8443694</v>
+        <v>116577262.4863008</v>
       </c>
       <c r="BT4">
-        <v>119509307.4703515</v>
+        <v>118322015.3851591</v>
       </c>
       <c r="BU4">
-        <v>121298101.8214013</v>
+        <v>120063281.4408132</v>
       </c>
       <c r="BV4">
-        <v>123140837.1052732</v>
+        <v>121862979.9423083</v>
       </c>
       <c r="BW4">
-        <v>124999979.893278</v>
+        <v>123685162.5292389</v>
       </c>
       <c r="BX4">
-        <v>126826183.8014098</v>
+        <v>125498215.0615451</v>
       </c>
       <c r="BY4">
-        <v>128594924.5884227</v>
+        <v>127292970.3509128</v>
       </c>
       <c r="BZ4">
-        <v>130312673.2261025</v>
+        <v>129072095.4539527</v>
       </c>
       <c r="CA4">
-        <v>132063544.182354</v>
+        <v>130906593.0914355</v>
       </c>
       <c r="CB4">
-        <v>133851950.9509547</v>
+        <v>132773039.8140689</v>
       </c>
       <c r="CC4">
-        <v>135682529.333002</v>
+        <v>134659062.8851214</v>
       </c>
       <c r="CD4">
-        <v>137535330.8564133</v>
+        <v>136556174.1941223</v>
       </c>
       <c r="CE4">
-        <v>139384742.2094842</v>
+        <v>138453564.6810147</v>
       </c>
       <c r="CF4">
-        <v>141293302.2984856</v>
+        <v>140414188.4477791</v>
       </c>
       <c r="CG4">
-        <v>143232636.9187418</v>
+        <v>142401772.677067</v>
       </c>
       <c r="CH4">
-        <v>145187615.8126571</v>
+        <v>144394119.6461688</v>
       </c>
       <c r="CI4">
-        <v>147160146.6232614</v>
+        <v>146391181.0537207</v>
       </c>
       <c r="CJ4">
-        <v>149151993.8595645</v>
+        <v>148393079.0988192</v>
       </c>
       <c r="CK4">
-        <v>151217261.2728578</v>
+        <v>150450946.7750308</v>
       </c>
       <c r="CL4">
-        <v>153345501.2656074</v>
+        <v>152550979.3449514</v>
       </c>
       <c r="CM4">
-        <v>155503478.5542804</v>
+        <v>154659279.941151</v>
       </c>
       <c r="CN4">
-        <v>157685829.4320209</v>
+        <v>156774017.3108022</v>
       </c>
       <c r="CO4">
-        <v>159882980.373457</v>
+        <v>158891900.461678</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1509,274 +1510,1675 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694797.962662427</v>
+        <v>1694797.891812964</v>
       </c>
       <c r="E5">
-        <v>995983.2317938999</v>
+        <v>995983.1008120697</v>
       </c>
       <c r="F5">
-        <v>499198.9177843531</v>
+        <v>499198.6571567085</v>
       </c>
       <c r="G5">
-        <v>306788.0099359711</v>
+        <v>306787.5233016743</v>
       </c>
       <c r="H5">
-        <v>287560.9919724187</v>
+        <v>287560.2535441217</v>
       </c>
       <c r="I5">
-        <v>203999.4201820254</v>
+        <v>203998.1177931496</v>
       </c>
       <c r="J5">
-        <v>166968.216898186</v>
+        <v>166965.9350158124</v>
       </c>
       <c r="K5">
-        <v>215750.7222659774</v>
+        <v>215746.7516235104</v>
       </c>
       <c r="L5">
-        <v>391770.7644087555</v>
+        <v>391764.6921703477</v>
       </c>
       <c r="M5">
-        <v>343382.1414842071</v>
+        <v>343372.4470192878</v>
       </c>
       <c r="N5">
-        <v>433172.8524779181</v>
+        <v>433157.5957724058</v>
       </c>
       <c r="O5">
-        <v>543904.2958851445</v>
+        <v>543884.2090565419</v>
       </c>
       <c r="P5">
-        <v>3545993.588157657</v>
+        <v>3545963.858423309</v>
       </c>
       <c r="Q5">
-        <v>3627511.337663086</v>
+        <v>3627469.503630543</v>
       </c>
       <c r="R5">
-        <v>3712298.766089496</v>
+        <v>3712241.210403088</v>
       </c>
       <c r="S5">
-        <v>11984664.01561568</v>
+        <v>11984586.49921363</v>
       </c>
       <c r="T5">
-        <v>12234542.44785023</v>
+        <v>12234440.14581261</v>
       </c>
       <c r="U5">
-        <v>12489721.54223651</v>
+        <v>12489589.11583964</v>
       </c>
       <c r="V5">
-        <v>12750785.51203302</v>
+        <v>12750617.23086151</v>
       </c>
       <c r="W5">
-        <v>13018188.6653468</v>
+        <v>13017978.58825553</v>
       </c>
       <c r="X5">
-        <v>12480180.85321094</v>
+        <v>12479923.0223774</v>
       </c>
       <c r="Y5">
-        <v>12527237.95123789</v>
+        <v>12526926.61619411</v>
       </c>
       <c r="Z5">
-        <v>12579028.81647807</v>
+        <v>12578658.57761739</v>
       </c>
       <c r="AA5">
-        <v>12635224.83835318</v>
+        <v>12634790.67090814</v>
       </c>
       <c r="AB5">
-        <v>12695682.76815353</v>
+        <v>12695179.81074199</v>
       </c>
       <c r="AC5">
-        <v>2470292.913796106</v>
+        <v>2469715.884210044</v>
       </c>
       <c r="AD5">
-        <v>2541350.113053432</v>
+        <v>2540692.211828283</v>
       </c>
       <c r="AE5">
-        <v>2621201.060274034</v>
+        <v>2620452.256769266</v>
       </c>
       <c r="AF5">
-        <v>2714740.41501767</v>
+        <v>2713885.095459689</v>
       </c>
       <c r="AG5">
-        <v>2829363.639013155</v>
+        <v>2828377.753939475</v>
       </c>
       <c r="AH5">
-        <v>1028588.469497252</v>
+        <v>1027436.50617295</v>
       </c>
       <c r="AI5">
-        <v>1217893.84403576</v>
+        <v>1216526.132463598</v>
       </c>
       <c r="AJ5">
-        <v>1464661.96710712</v>
+        <v>1463012.961998126</v>
       </c>
       <c r="AK5">
-        <v>1782900.931079382</v>
+        <v>1780889.108709084</v>
       </c>
       <c r="AL5">
-        <v>2184878.448336444</v>
+        <v>2182408.291735325</v>
       </c>
       <c r="AM5">
-        <v>2679119.386691797</v>
+        <v>2676085.657718607</v>
       </c>
       <c r="AN5">
-        <v>3268493.92071931</v>
+        <v>3264788.104627739</v>
       </c>
       <c r="AO5">
-        <v>3948629.668296519</v>
+        <v>3944148.237743212</v>
       </c>
       <c r="AP5">
-        <v>4706757.760711728</v>
+        <v>4701411.753200857</v>
       </c>
       <c r="AQ5">
-        <v>5521104.950134176</v>
+        <v>5514830.239039116</v>
       </c>
       <c r="AR5">
-        <v>6360962.672985766</v>
+        <v>6353730.169221141</v>
       </c>
       <c r="AS5">
-        <v>7187634.478570263</v>
+        <v>7179459.222599423</v>
       </c>
       <c r="AT5">
-        <v>7956675.941211917</v>
+        <v>7947623.669205504</v>
       </c>
       <c r="AU5">
-        <v>8621411.922260245</v>
+        <v>8611601.6109544</v>
       </c>
       <c r="AV5">
-        <v>10450370.82846162</v>
+        <v>10439971.96865045</v>
       </c>
       <c r="AW5">
-        <v>11152699.73977924</v>
+        <v>11141923.67890129</v>
       </c>
       <c r="AX5">
-        <v>11274025.6220826</v>
+        <v>11263111.40277549</v>
       </c>
       <c r="AY5">
-        <v>11177358.09665424</v>
+        <v>11166554.35979524</v>
       </c>
       <c r="AZ5">
-        <v>10871484.89152173</v>
+        <v>10861030.26899425</v>
       </c>
       <c r="BA5">
-        <v>10381330.37232585</v>
+        <v>10371435.06575221</v>
       </c>
       <c r="BB5">
-        <v>9554207.960146204</v>
+        <v>9545038.768973388</v>
       </c>
       <c r="BC5">
-        <v>8818643.151138166</v>
+        <v>8810313.228710137</v>
       </c>
       <c r="BD5">
-        <v>8035525.880626305</v>
+        <v>8028089.468322214</v>
       </c>
       <c r="BE5">
-        <v>7257199.205279851</v>
+        <v>7250650.838714475</v>
       </c>
       <c r="BF5">
-        <v>6533314.022127215</v>
+        <v>6527591.602187592</v>
       </c>
       <c r="BG5">
-        <v>5719442.994773985</v>
+        <v>5714434.540912695</v>
       </c>
       <c r="BH5">
-        <v>5226546.851459615</v>
+        <v>5222100.880456887</v>
       </c>
       <c r="BI5">
-        <v>4889218.654263291</v>
+        <v>4885157.716460675</v>
       </c>
       <c r="BJ5">
-        <v>4716835.806305205</v>
+        <v>4712971.755619921</v>
       </c>
       <c r="BK5">
-        <v>4705887.711195785</v>
+        <v>4702036.405936882</v>
       </c>
       <c r="BL5">
-        <v>4701066.017544465</v>
+        <v>4697059.067971377</v>
       </c>
       <c r="BM5">
-        <v>4965127.760453606</v>
+        <v>4960819.87361028</v>
       </c>
       <c r="BN5">
-        <v>5333653.364702226</v>
+        <v>5328925.383201559</v>
       </c>
       <c r="BO5">
-        <v>5783612.000573399</v>
+        <v>5778371.037303502</v>
       </c>
       <c r="BP5">
-        <v>6292820.882116107</v>
+        <v>6286999.352909161</v>
       </c>
       <c r="BQ5">
-        <v>6741115.31974425</v>
+        <v>6734670.14808272</v>
       </c>
       <c r="BR5">
-        <v>7304603.058217809</v>
+        <v>7297515.419815136</v>
       </c>
       <c r="BS5">
-        <v>7863334.815126487</v>
+        <v>7855610.134777904</v>
       </c>
       <c r="BT5">
-        <v>8396222.809265522</v>
+        <v>8387890.565744214</v>
       </c>
       <c r="BU5">
-        <v>8882791.251049856</v>
+        <v>8873904.279063184</v>
       </c>
       <c r="BV5">
-        <v>9207502.180232517</v>
+        <v>9198135.264609629</v>
       </c>
       <c r="BW5">
-        <v>9545748.505419929</v>
+        <v>9535996.059130456</v>
       </c>
       <c r="BX5">
-        <v>9787063.787305003</v>
+        <v>9777036.375378247</v>
       </c>
       <c r="BY5">
-        <v>9921525.831909932</v>
+        <v>9911345.3371277</v>
       </c>
       <c r="BZ5">
-        <v>9944664.376984349</v>
+        <v>9934457.78118659</v>
       </c>
       <c r="CA5">
-        <v>9757363.315595044</v>
+        <v>9747255.346962988</v>
       </c>
       <c r="CB5">
-        <v>9570756.201688303</v>
+        <v>9560861.395703649</v>
       </c>
       <c r="CC5">
-        <v>9299421.219286006</v>
+        <v>9289836.221559463</v>
       </c>
       <c r="CD5">
-        <v>8964745.809005545</v>
+        <v>8955542.86934077</v>
       </c>
       <c r="CE5">
-        <v>8592026.884872887</v>
+        <v>8583249.397878574</v>
       </c>
       <c r="CF5">
-        <v>8094189.238051431</v>
+        <v>8085849.883372086</v>
       </c>
       <c r="CG5">
-        <v>7725451.753402605</v>
+        <v>7717533.329355941</v>
       </c>
       <c r="CH5">
-        <v>7395218.792511346</v>
+        <v>7387677.378665099</v>
       </c>
       <c r="CI5">
-        <v>7122674.413272932</v>
+        <v>7115444.206761011</v>
       </c>
       <c r="CJ5">
-        <v>6921926.690029377</v>
+        <v>6914925.79550981</v>
       </c>
       <c r="CK5">
-        <v>6645888.597456351</v>
+        <v>6639025.161351602</v>
       </c>
       <c r="CL5">
-        <v>6609652.125731561</v>
+        <v>6602830.371405751</v>
       </c>
       <c r="CM5">
-        <v>6655886.834221262</v>
+        <v>6649012.690390951</v>
       </c>
       <c r="CN5">
-        <v>6778720.056822282</v>
+        <v>6771706.150888409</v>
       </c>
       <c r="CO5">
-        <v>6968616.601601511</v>
+        <v>6961386.437323859</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CO5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:93">
+      <c r="D1" s="1">
+        <v>2011</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2012</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2013</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2014</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2015</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2016</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2017</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>2070</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>2071</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>2072</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>2073</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>2074</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>2075</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>2076</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>2077</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>2078</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>2079</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>2080</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>2081</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>2082</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>2083</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>2084</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>2085</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>2086</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>2087</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>2088</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>2089</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>2090</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>2091</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>2092</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>2093</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>2094</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>2095</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>2096</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>2097</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>2098</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>2099</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>262.0274379424926</v>
+      </c>
+      <c r="E2">
+        <v>564.6433745157517</v>
+      </c>
+      <c r="F2">
+        <v>1064.87552694432</v>
+      </c>
+      <c r="G2">
+        <v>1435.48393505994</v>
+      </c>
+      <c r="H2">
+        <v>2384.483940532652</v>
+      </c>
+      <c r="I2">
+        <v>2929.765285521555</v>
+      </c>
+      <c r="J2">
+        <v>3538.257528997431</v>
+      </c>
+      <c r="K2">
+        <v>4238.144213543071</v>
+      </c>
+      <c r="L2">
+        <v>4795.971440850181</v>
+      </c>
+      <c r="M2">
+        <v>5480.372549942761</v>
+      </c>
+      <c r="N2">
+        <v>5827.235338890871</v>
+      </c>
+      <c r="O2">
+        <v>6211.855549429916</v>
+      </c>
+      <c r="P2">
+        <v>6983.561228843831</v>
+      </c>
+      <c r="Q2">
+        <v>7762.104022987494</v>
+      </c>
+      <c r="R2">
+        <v>8550.532594442122</v>
+      </c>
+      <c r="S2">
+        <v>10536.07278830066</v>
+      </c>
+      <c r="T2">
+        <v>12540.948496521</v>
+      </c>
+      <c r="U2">
+        <v>14554.23145946571</v>
+      </c>
+      <c r="V2">
+        <v>16560.41157185059</v>
+      </c>
+      <c r="W2">
+        <v>18565.03460580661</v>
+      </c>
+      <c r="X2">
+        <v>20410.45494979602</v>
+      </c>
+      <c r="Y2">
+        <v>22272.90284564356</v>
+      </c>
+      <c r="Z2">
+        <v>24154.04379714739</v>
+      </c>
+      <c r="AA2">
+        <v>26059.26538144479</v>
+      </c>
+      <c r="AB2">
+        <v>27984.81420390258</v>
+      </c>
+      <c r="AC2">
+        <v>28581.76539685848</v>
+      </c>
+      <c r="AD2">
+        <v>29227.42476091815</v>
+      </c>
+      <c r="AE2">
+        <v>29964.49057065883</v>
+      </c>
+      <c r="AF2">
+        <v>30808.37546827718</v>
+      </c>
+      <c r="AG2">
+        <v>31766.91854109393</v>
+      </c>
+      <c r="AH2">
+        <v>32564.76753847933</v>
+      </c>
+      <c r="AI2">
+        <v>33311.50037308581</v>
+      </c>
+      <c r="AJ2">
+        <v>34054.3489984823</v>
+      </c>
+      <c r="AK2">
+        <v>34777.24284850703</v>
+      </c>
+      <c r="AL2">
+        <v>35467.6282681726</v>
+      </c>
+      <c r="AM2">
+        <v>36127.13896922729</v>
+      </c>
+      <c r="AN2">
+        <v>36834.21554009577</v>
+      </c>
+      <c r="AO2">
+        <v>37718.86336087006</v>
+      </c>
+      <c r="AP2">
+        <v>38812.33088495991</v>
+      </c>
+      <c r="AQ2">
+        <v>40180.99993044707</v>
+      </c>
+      <c r="AR2">
+        <v>41953.36498621634</v>
+      </c>
+      <c r="AS2">
+        <v>44011.23226356188</v>
+      </c>
+      <c r="AT2">
+        <v>46114.64770403193</v>
+      </c>
+      <c r="AU2">
+        <v>48209.50638101927</v>
+      </c>
+      <c r="AV2">
+        <v>50284.58218532785</v>
+      </c>
+      <c r="AW2">
+        <v>52314.4207428734</v>
+      </c>
+      <c r="AX2">
+        <v>54522.91796858227</v>
+      </c>
+      <c r="AY2">
+        <v>56700.63107916929</v>
+      </c>
+      <c r="AZ2">
+        <v>58776.89161908552</v>
+      </c>
+      <c r="BA2">
+        <v>60597.81503299593</v>
+      </c>
+      <c r="BB2">
+        <v>61987.85776499927</v>
+      </c>
+      <c r="BC2">
+        <v>63123.06637939837</v>
+      </c>
+      <c r="BD2">
+        <v>64283.50363765812</v>
+      </c>
+      <c r="BE2">
+        <v>65508.90914614555</v>
+      </c>
+      <c r="BF2">
+        <v>66760.70721533216</v>
+      </c>
+      <c r="BG2">
+        <v>67950.54381422655</v>
+      </c>
+      <c r="BH2">
+        <v>69084.10443940868</v>
+      </c>
+      <c r="BI2">
+        <v>70189.02127038187</v>
+      </c>
+      <c r="BJ2">
+        <v>71277.02896647311</v>
+      </c>
+      <c r="BK2">
+        <v>72355.55908951975</v>
+      </c>
+      <c r="BL2">
+        <v>73434.90859371953</v>
+      </c>
+      <c r="BM2">
+        <v>74597.74504637164</v>
+      </c>
+      <c r="BN2">
+        <v>75924.35852310195</v>
+      </c>
+      <c r="BO2">
+        <v>77480.03262425253</v>
+      </c>
+      <c r="BP2">
+        <v>79307.69812921241</v>
+      </c>
+      <c r="BQ2">
+        <v>81404.17470533153</v>
+      </c>
+      <c r="BR2">
+        <v>83716.84790529333</v>
+      </c>
+      <c r="BS2">
+        <v>86125.31990013577</v>
+      </c>
+      <c r="BT2">
+        <v>88547.56364545508</v>
+      </c>
+      <c r="BU2">
+        <v>90964.32948832031</v>
+      </c>
+      <c r="BV2">
+        <v>93374.81490778134</v>
+      </c>
+      <c r="BW2">
+        <v>95806.69961680743</v>
+      </c>
+      <c r="BX2">
+        <v>98208.71031749116</v>
+      </c>
+      <c r="BY2">
+        <v>100472.5197327627</v>
+      </c>
+      <c r="BZ2">
+        <v>102509.2990050003</v>
+      </c>
+      <c r="CA2">
+        <v>104271.7733126783</v>
+      </c>
+      <c r="CB2">
+        <v>105850.7996449681</v>
+      </c>
+      <c r="CC2">
+        <v>107381.9624640991</v>
+      </c>
+      <c r="CD2">
+        <v>108935.9529095449</v>
+      </c>
+      <c r="CE2">
+        <v>110500.0467630421</v>
+      </c>
+      <c r="CF2">
+        <v>112023.9198768599</v>
+      </c>
+      <c r="CG2">
+        <v>113509.6443759411</v>
+      </c>
+      <c r="CH2">
+        <v>114969.0394084941</v>
+      </c>
+      <c r="CI2">
+        <v>116419.1942485548</v>
+      </c>
+      <c r="CJ2">
+        <v>117880.1585073201</v>
+      </c>
+      <c r="CK2">
+        <v>119365.1090800705</v>
+      </c>
+      <c r="CL2">
+        <v>120952.3996637689</v>
+      </c>
+      <c r="CM2">
+        <v>122707.4994626268</v>
+      </c>
+      <c r="CN2">
+        <v>124681.047048575</v>
+      </c>
+      <c r="CO2">
+        <v>126895.4806482657</v>
+      </c>
+    </row>
+    <row r="3" spans="1:93">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>16.49064919837422</v>
+      </c>
+      <c r="E3">
+        <v>35.64995078749983</v>
+      </c>
+      <c r="F3">
+        <v>67.96291023567508</v>
+      </c>
+      <c r="G3">
+        <v>91.57076958304258</v>
+      </c>
+      <c r="H3">
+        <v>154.1246473089697</v>
+      </c>
+      <c r="I3">
+        <v>189.5516603575321</v>
+      </c>
+      <c r="J3">
+        <v>229.1116487816705</v>
+      </c>
+      <c r="K3">
+        <v>274.6568463762956</v>
+      </c>
+      <c r="L3">
+        <v>310.7057397897358</v>
+      </c>
+      <c r="M3">
+        <v>355.1827063205581</v>
+      </c>
+      <c r="N3">
+        <v>376.8405755496688</v>
+      </c>
+      <c r="O3">
+        <v>401.1778528584668</v>
+      </c>
+      <c r="P3">
+        <v>451.4279115784821</v>
+      </c>
+      <c r="Q3">
+        <v>504.4122440146788</v>
+      </c>
+      <c r="R3">
+        <v>560.3890818260586</v>
+      </c>
+      <c r="S3">
+        <v>711.0615494676842</v>
+      </c>
+      <c r="T3">
+        <v>869.5642115133347</v>
+      </c>
+      <c r="U3">
+        <v>1035.085237253698</v>
+      </c>
+      <c r="V3">
+        <v>1206.29804158565</v>
+      </c>
+      <c r="W3">
+        <v>1383.643403687857</v>
+      </c>
+      <c r="X3">
+        <v>1546.461179764037</v>
+      </c>
+      <c r="Y3">
+        <v>1710.727890470496</v>
+      </c>
+      <c r="Z3">
+        <v>1876.595786208921</v>
+      </c>
+      <c r="AA3">
+        <v>2044.557308593586</v>
+      </c>
+      <c r="AB3">
+        <v>2214.269342578784</v>
+      </c>
+      <c r="AC3">
+        <v>2263.481979377713</v>
+      </c>
+      <c r="AD3">
+        <v>2317.037515954223</v>
+      </c>
+      <c r="AE3">
+        <v>2378.839679563253</v>
+      </c>
+      <c r="AF3">
+        <v>2450.297419600075</v>
+      </c>
+      <c r="AG3">
+        <v>2532.127175344742</v>
+      </c>
+      <c r="AH3">
+        <v>2599.302997222941</v>
+      </c>
+      <c r="AI3">
+        <v>2661.690905935074</v>
+      </c>
+      <c r="AJ3">
+        <v>2723.608686883743</v>
+      </c>
+      <c r="AK3">
+        <v>2783.586113353244</v>
+      </c>
+      <c r="AL3">
+        <v>2840.474216266758</v>
+      </c>
+      <c r="AM3">
+        <v>2894.420352086326</v>
+      </c>
+      <c r="AN3">
+        <v>2952.594192037154</v>
+      </c>
+      <c r="AO3">
+        <v>3026.879921912224</v>
+      </c>
+      <c r="AP3">
+        <v>3120.13322844611</v>
+      </c>
+      <c r="AQ3">
+        <v>3238.421319519272</v>
+      </c>
+      <c r="AR3">
+        <v>3393.486242351385</v>
+      </c>
+      <c r="AS3">
+        <v>3574.524061397474</v>
+      </c>
+      <c r="AT3">
+        <v>3759.601119710926</v>
+      </c>
+      <c r="AU3">
+        <v>3943.772701927775</v>
+      </c>
+      <c r="AV3">
+        <v>4126.001047145883</v>
+      </c>
+      <c r="AW3">
+        <v>4303.960206786512</v>
+      </c>
+      <c r="AX3">
+        <v>4497.959593096091</v>
+      </c>
+      <c r="AY3">
+        <v>4689.019075173217</v>
+      </c>
+      <c r="AZ3">
+        <v>4870.680948161844</v>
+      </c>
+      <c r="BA3">
+        <v>5028.880466626249</v>
+      </c>
+      <c r="BB3">
+        <v>5147.582516179633</v>
+      </c>
+      <c r="BC3">
+        <v>5242.859955959721</v>
+      </c>
+      <c r="BD3">
+        <v>5340.314326472723</v>
+      </c>
+      <c r="BE3">
+        <v>5443.57831864745</v>
+      </c>
+      <c r="BF3">
+        <v>5549.124872201911</v>
+      </c>
+      <c r="BG3">
+        <v>5648.887346700039</v>
+      </c>
+      <c r="BH3">
+        <v>5743.362817323321</v>
+      </c>
+      <c r="BI3">
+        <v>5835.075399101831</v>
+      </c>
+      <c r="BJ3">
+        <v>5925.095955121654</v>
+      </c>
+      <c r="BK3">
+        <v>6014.101852183857</v>
+      </c>
+      <c r="BL3">
+        <v>6103.040894717722</v>
+      </c>
+      <c r="BM3">
+        <v>6199.453156696908</v>
+      </c>
+      <c r="BN3">
+        <v>6310.677426820111</v>
+      </c>
+      <c r="BO3">
+        <v>6442.680771737692</v>
+      </c>
+      <c r="BP3">
+        <v>6599.386900922143</v>
+      </c>
+      <c r="BQ3">
+        <v>6780.504031535369</v>
+      </c>
+      <c r="BR3">
+        <v>6981.211665481187</v>
+      </c>
+      <c r="BS3">
+        <v>7190.50427911444</v>
+      </c>
+      <c r="BT3">
+        <v>7400.884032393825</v>
+      </c>
+      <c r="BU3">
+        <v>7610.591798048009</v>
+      </c>
+      <c r="BV3">
+        <v>7819.555640004307</v>
+      </c>
+      <c r="BW3">
+        <v>8030.296085449725</v>
+      </c>
+      <c r="BX3">
+        <v>8238.127258187034</v>
+      </c>
+      <c r="BY3">
+        <v>8433.148055003627</v>
+      </c>
+      <c r="BZ3">
+        <v>8607.239825156841</v>
+      </c>
+      <c r="CA3">
+        <v>8756.083208700833</v>
+      </c>
+      <c r="CB3">
+        <v>8887.97361459093</v>
+      </c>
+      <c r="CC3">
+        <v>9015.305925859255</v>
+      </c>
+      <c r="CD3">
+        <v>9144.542681056371</v>
+      </c>
+      <c r="CE3">
+        <v>9274.520857325986</v>
+      </c>
+      <c r="CF3">
+        <v>9400.640804371465</v>
+      </c>
+      <c r="CG3">
+        <v>9523.07878628757</v>
+      </c>
+      <c r="CH3">
+        <v>9642.914500577181</v>
+      </c>
+      <c r="CI3">
+        <v>9761.709305826602</v>
+      </c>
+      <c r="CJ3">
+        <v>9881.295070536642</v>
+      </c>
+      <c r="CK3">
+        <v>10002.88163618903</v>
+      </c>
+      <c r="CL3">
+        <v>10133.61353154612</v>
+      </c>
+      <c r="CM3">
+        <v>10279.47478037906</v>
+      </c>
+      <c r="CN3">
+        <v>10445.09372751906</v>
+      </c>
+      <c r="CO3">
+        <v>10632.52086627257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:93">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>26474387.15107802</v>
+      </c>
+      <c r="E4">
+        <v>53251620.38058935</v>
+      </c>
+      <c r="F4">
+        <v>82627838.27938208</v>
+      </c>
+      <c r="G4">
+        <v>112095494.7226948</v>
+      </c>
+      <c r="H4">
+        <v>138928244.5435729</v>
+      </c>
+      <c r="I4">
+        <v>165247626.2197077</v>
+      </c>
+      <c r="J4">
+        <v>194275229.5026029</v>
+      </c>
+      <c r="K4">
+        <v>227123097.4189658</v>
+      </c>
+      <c r="L4">
+        <v>259748235.4222996</v>
+      </c>
+      <c r="M4">
+        <v>294453320.2633814</v>
+      </c>
+      <c r="N4">
+        <v>332010845.8894651</v>
+      </c>
+      <c r="O4">
+        <v>366851394.3349931</v>
+      </c>
+      <c r="P4">
+        <v>405536939.8205202</v>
+      </c>
+      <c r="Q4">
+        <v>445367929.0331577</v>
+      </c>
+      <c r="R4">
+        <v>486349253.8049408</v>
+      </c>
+      <c r="S4">
+        <v>531973992.1571416</v>
+      </c>
+      <c r="T4">
+        <v>578514361.3173496</v>
+      </c>
+      <c r="U4">
+        <v>625957944.9984325</v>
+      </c>
+      <c r="V4">
+        <v>674303011.2722706</v>
+      </c>
+      <c r="W4">
+        <v>723549340.5117924</v>
+      </c>
+      <c r="X4">
+        <v>773965792.8590665</v>
+      </c>
+      <c r="Y4">
+        <v>825726707.2161291</v>
+      </c>
+      <c r="Z4">
+        <v>878831895.7295491</v>
+      </c>
+      <c r="AA4">
+        <v>933282190.5783923</v>
+      </c>
+      <c r="AB4">
+        <v>989076769.1921</v>
+      </c>
+      <c r="AC4">
+        <v>1044002524.077624</v>
+      </c>
+      <c r="AD4">
+        <v>1100277108.608358</v>
+      </c>
+      <c r="AE4">
+        <v>1157900778.554873</v>
+      </c>
+      <c r="AF4">
+        <v>1216874190.281985</v>
+      </c>
+      <c r="AG4">
+        <v>1277198000.515234</v>
+      </c>
+      <c r="AH4">
+        <v>1338508852.924226</v>
+      </c>
+      <c r="AI4">
+        <v>1401189427.789936</v>
+      </c>
+      <c r="AJ4">
+        <v>1465239821.883175</v>
+      </c>
+      <c r="AK4">
+        <v>1530662079.800085</v>
+      </c>
+      <c r="AL4">
+        <v>1597459750.3224</v>
+      </c>
+      <c r="AM4">
+        <v>1665611100.2398</v>
+      </c>
+      <c r="AN4">
+        <v>1735126034.235605</v>
+      </c>
+      <c r="AO4">
+        <v>1806014640.768511</v>
+      </c>
+      <c r="AP4">
+        <v>1878281897.562559</v>
+      </c>
+      <c r="AQ4">
+        <v>1951940544.156499</v>
+      </c>
+      <c r="AR4">
+        <v>2026996876.000091</v>
+      </c>
+      <c r="AS4">
+        <v>2103431289.305809</v>
+      </c>
+      <c r="AT4">
+        <v>2181204646.924947</v>
+      </c>
+      <c r="AU4">
+        <v>2260307980.541422</v>
+      </c>
+      <c r="AV4">
+        <v>2340937762.462111</v>
+      </c>
+      <c r="AW4">
+        <v>2423034870.921518</v>
+      </c>
+      <c r="AX4">
+        <v>2506653049.756466</v>
+      </c>
+      <c r="AY4">
+        <v>2591681874.864342</v>
+      </c>
+      <c r="AZ4">
+        <v>2678109008.634986</v>
+      </c>
+      <c r="BA4">
+        <v>2765908664.041889</v>
+      </c>
+      <c r="BB4">
+        <v>2855101300.297238</v>
+      </c>
+      <c r="BC4">
+        <v>2945749248.323681</v>
+      </c>
+      <c r="BD4">
+        <v>3037893469.235024</v>
+      </c>
+      <c r="BE4">
+        <v>3131539228.818226</v>
+      </c>
+      <c r="BF4">
+        <v>3226683162.569171</v>
+      </c>
+      <c r="BG4">
+        <v>3323355809.038872</v>
+      </c>
+      <c r="BH4">
+        <v>3421601144.806213</v>
+      </c>
+      <c r="BI4">
+        <v>3521425875.164596</v>
+      </c>
+      <c r="BJ4">
+        <v>3622833838.016314</v>
+      </c>
+      <c r="BK4">
+        <v>3725829789.386995</v>
+      </c>
+      <c r="BL4">
+        <v>3830439665.315538</v>
+      </c>
+      <c r="BM4">
+        <v>3936703015.562818</v>
+      </c>
+      <c r="BN4">
+        <v>4044628764.174807</v>
+      </c>
+      <c r="BO4">
+        <v>4154225158.039793</v>
+      </c>
+      <c r="BP4">
+        <v>4265499426.066069</v>
+      </c>
+      <c r="BQ4">
+        <v>4378540648.495623</v>
+      </c>
+      <c r="BR4">
+        <v>4493359715.121324</v>
+      </c>
+      <c r="BS4">
+        <v>4609936977.607624</v>
+      </c>
+      <c r="BT4">
+        <v>4728258992.992784</v>
+      </c>
+      <c r="BU4">
+        <v>4848322274.433597</v>
+      </c>
+      <c r="BV4">
+        <v>4970185254.375905</v>
+      </c>
+      <c r="BW4">
+        <v>5093870416.905144</v>
+      </c>
+      <c r="BX4">
+        <v>5219368631.966689</v>
+      </c>
+      <c r="BY4">
+        <v>5346661602.317602</v>
+      </c>
+      <c r="BZ4">
+        <v>5475733697.771555</v>
+      </c>
+      <c r="CA4">
+        <v>5606640290.86299</v>
+      </c>
+      <c r="CB4">
+        <v>5739413330.677059</v>
+      </c>
+      <c r="CC4">
+        <v>5874072393.562181</v>
+      </c>
+      <c r="CD4">
+        <v>6010628567.756303</v>
+      </c>
+      <c r="CE4">
+        <v>6149082132.437318</v>
+      </c>
+      <c r="CF4">
+        <v>6289496320.885097</v>
+      </c>
+      <c r="CG4">
+        <v>6431898093.562163</v>
+      </c>
+      <c r="CH4">
+        <v>6576292213.208332</v>
+      </c>
+      <c r="CI4">
+        <v>6722683394.262053</v>
+      </c>
+      <c r="CJ4">
+        <v>6871076473.360871</v>
+      </c>
+      <c r="CK4">
+        <v>7021527420.135902</v>
+      </c>
+      <c r="CL4">
+        <v>7174078399.480854</v>
+      </c>
+      <c r="CM4">
+        <v>7328737679.422005</v>
+      </c>
+      <c r="CN4">
+        <v>7485511696.732807</v>
+      </c>
+      <c r="CO4">
+        <v>7644403597.194485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:93">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1694797.891812964</v>
+      </c>
+      <c r="E5">
+        <v>2690780.992625034</v>
+      </c>
+      <c r="F5">
+        <v>3189979.649781743</v>
+      </c>
+      <c r="G5">
+        <v>3496767.173083417</v>
+      </c>
+      <c r="H5">
+        <v>3784327.426627539</v>
+      </c>
+      <c r="I5">
+        <v>3988325.544420689</v>
+      </c>
+      <c r="J5">
+        <v>4155291.479436501</v>
+      </c>
+      <c r="K5">
+        <v>4371038.231060011</v>
+      </c>
+      <c r="L5">
+        <v>4762802.923230359</v>
+      </c>
+      <c r="M5">
+        <v>5106175.370249647</v>
+      </c>
+      <c r="N5">
+        <v>5539332.966022053</v>
+      </c>
+      <c r="O5">
+        <v>6083217.175078595</v>
+      </c>
+      <c r="P5">
+        <v>9629181.033501904</v>
+      </c>
+      <c r="Q5">
+        <v>13256650.53713245</v>
+      </c>
+      <c r="R5">
+        <v>16968891.74753553</v>
+      </c>
+      <c r="S5">
+        <v>28953478.24674917</v>
+      </c>
+      <c r="T5">
+        <v>41187918.39256178</v>
+      </c>
+      <c r="U5">
+        <v>53677507.50840142</v>
+      </c>
+      <c r="V5">
+        <v>66428124.73926293</v>
+      </c>
+      <c r="W5">
+        <v>79446103.32751846</v>
+      </c>
+      <c r="X5">
+        <v>91926026.34989586</v>
+      </c>
+      <c r="Y5">
+        <v>104452952.96609</v>
+      </c>
+      <c r="Z5">
+        <v>117031611.5437074</v>
+      </c>
+      <c r="AA5">
+        <v>129666402.2146155</v>
+      </c>
+      <c r="AB5">
+        <v>142361582.0253575</v>
+      </c>
+      <c r="AC5">
+        <v>144831297.9095675</v>
+      </c>
+      <c r="AD5">
+        <v>147371990.1213958</v>
+      </c>
+      <c r="AE5">
+        <v>149992442.3781651</v>
+      </c>
+      <c r="AF5">
+        <v>152706327.4736248</v>
+      </c>
+      <c r="AG5">
+        <v>155534705.2275643</v>
+      </c>
+      <c r="AH5">
+        <v>156562141.7337372</v>
+      </c>
+      <c r="AI5">
+        <v>157778667.8662008</v>
+      </c>
+      <c r="AJ5">
+        <v>159241680.828199</v>
+      </c>
+      <c r="AK5">
+        <v>161022569.9369081</v>
+      </c>
+      <c r="AL5">
+        <v>163204978.2286434</v>
+      </c>
+      <c r="AM5">
+        <v>165881063.886362</v>
+      </c>
+      <c r="AN5">
+        <v>169145851.9909897</v>
+      </c>
+      <c r="AO5">
+        <v>173090000.2287329</v>
+      </c>
+      <c r="AP5">
+        <v>177791411.9819338</v>
+      </c>
+      <c r="AQ5">
+        <v>183306242.2209729</v>
+      </c>
+      <c r="AR5">
+        <v>189659972.390194</v>
+      </c>
+      <c r="AS5">
+        <v>196839431.6127934</v>
+      </c>
+      <c r="AT5">
+        <v>204787055.281999</v>
+      </c>
+      <c r="AU5">
+        <v>213398656.8929534</v>
+      </c>
+      <c r="AV5">
+        <v>223838628.8616038</v>
+      </c>
+      <c r="AW5">
+        <v>234980552.5405051</v>
+      </c>
+      <c r="AX5">
+        <v>246243663.9432806</v>
+      </c>
+      <c r="AY5">
+        <v>257410218.3030759</v>
+      </c>
+      <c r="AZ5">
+        <v>268271248.5720701</v>
+      </c>
+      <c r="BA5">
+        <v>278642683.6378223</v>
+      </c>
+      <c r="BB5">
+        <v>288187722.4067957</v>
+      </c>
+      <c r="BC5">
+        <v>296998035.6355058</v>
+      </c>
+      <c r="BD5">
+        <v>305026125.103828</v>
+      </c>
+      <c r="BE5">
+        <v>312276775.9425425</v>
+      </c>
+      <c r="BF5">
+        <v>318804367.5447301</v>
+      </c>
+      <c r="BG5">
+        <v>324518802.0856428</v>
+      </c>
+      <c r="BH5">
+        <v>329740902.9660996</v>
+      </c>
+      <c r="BI5">
+        <v>334626060.6825603</v>
+      </c>
+      <c r="BJ5">
+        <v>339339032.4381803</v>
+      </c>
+      <c r="BK5">
+        <v>344041068.8441172</v>
+      </c>
+      <c r="BL5">
+        <v>348738127.9120885</v>
+      </c>
+      <c r="BM5">
+        <v>353698947.7856988</v>
+      </c>
+      <c r="BN5">
+        <v>359027873.1689003</v>
+      </c>
+      <c r="BO5">
+        <v>364806244.2062038</v>
+      </c>
+      <c r="BP5">
+        <v>371093243.559113</v>
+      </c>
+      <c r="BQ5">
+        <v>377827913.7071957</v>
+      </c>
+      <c r="BR5">
+        <v>385125429.1270108</v>
+      </c>
+      <c r="BS5">
+        <v>392981039.2617887</v>
+      </c>
+      <c r="BT5">
+        <v>401368929.8275329</v>
+      </c>
+      <c r="BU5">
+        <v>410242834.1065961</v>
+      </c>
+      <c r="BV5">
+        <v>419440969.3712057</v>
+      </c>
+      <c r="BW5">
+        <v>428976965.4303362</v>
+      </c>
+      <c r="BX5">
+        <v>438754001.8057144</v>
+      </c>
+      <c r="BY5">
+        <v>448665347.1428421</v>
+      </c>
+      <c r="BZ5">
+        <v>458599804.9240287</v>
+      </c>
+      <c r="CA5">
+        <v>468347060.2709917</v>
+      </c>
+      <c r="CB5">
+        <v>477907921.6666954</v>
+      </c>
+      <c r="CC5">
+        <v>487197757.8882548</v>
+      </c>
+      <c r="CD5">
+        <v>496153300.7575956</v>
+      </c>
+      <c r="CE5">
+        <v>504736550.1554742</v>
+      </c>
+      <c r="CF5">
+        <v>512822400.0388463</v>
+      </c>
+      <c r="CG5">
+        <v>520539933.3682022</v>
+      </c>
+      <c r="CH5">
+        <v>527927610.7468673</v>
+      </c>
+      <c r="CI5">
+        <v>535043054.9536283</v>
+      </c>
+      <c r="CJ5">
+        <v>541957980.7491381</v>
+      </c>
+      <c r="CK5">
+        <v>548597005.9104897</v>
+      </c>
+      <c r="CL5">
+        <v>555199836.2818954</v>
+      </c>
+      <c r="CM5">
+        <v>561848848.9722863</v>
+      </c>
+      <c r="CN5">
+        <v>568620555.1231748</v>
+      </c>
+      <c r="CO5">
+        <v>575581941.5604986</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Act/Lifetime/Results_world_act_life_Max.xlsx
+++ b/Results/Act/Lifetime/Results_world_act_life_Max.xlsx
@@ -29,7 +29,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -679,274 +679,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0274379424926</v>
+        <v>1072.34614200176</v>
       </c>
       <c r="E2">
-        <v>302.6159365732591</v>
+        <v>1397.685254309567</v>
       </c>
       <c r="F2">
-        <v>500.2321524285682</v>
+        <v>1396.951958427596</v>
       </c>
       <c r="G2">
-        <v>370.6084081156198</v>
+        <v>1327.455286693846</v>
       </c>
       <c r="H2">
-        <v>949.0000054727121</v>
+        <v>1780.404541681538</v>
       </c>
       <c r="I2">
-        <v>545.2813449889029</v>
+        <v>1284.389711986773</v>
       </c>
       <c r="J2">
-        <v>608.4922434758764</v>
+        <v>2323.9891009535</v>
       </c>
       <c r="K2">
-        <v>699.8866845456396</v>
+        <v>2310.243148226183</v>
       </c>
       <c r="L2">
-        <v>557.8272273071105</v>
+        <v>2055.438324352423</v>
       </c>
       <c r="M2">
-        <v>684.4011090925799</v>
+        <v>1894.032549969061</v>
       </c>
       <c r="N2">
-        <v>346.8627889481101</v>
+        <v>4051.463492310243</v>
       </c>
       <c r="O2">
-        <v>384.6202105390444</v>
+        <v>2455.800972009289</v>
       </c>
       <c r="P2">
-        <v>771.7056794139156</v>
+        <v>4919.771154177478</v>
       </c>
       <c r="Q2">
-        <v>778.5427941436629</v>
+        <v>5296.527561583984</v>
       </c>
       <c r="R2">
-        <v>788.428571454627</v>
+        <v>5677.267901069636</v>
       </c>
       <c r="S2">
-        <v>1985.540193858538</v>
+        <v>12465.23949084153</v>
       </c>
       <c r="T2">
-        <v>2004.875708220344</v>
+        <v>13374.20790641838</v>
       </c>
       <c r="U2">
-        <v>2013.282962944706</v>
+        <v>14276.96041266424</v>
       </c>
       <c r="V2">
-        <v>2006.180112384873</v>
+        <v>15162.93296444936</v>
       </c>
       <c r="W2">
-        <v>2004.623033956026</v>
+        <v>16051.99549226983</v>
       </c>
       <c r="X2">
-        <v>1845.420343989407</v>
+        <v>16088.79060825672</v>
       </c>
       <c r="Y2">
-        <v>1862.447895847545</v>
+        <v>16925.15692062004</v>
       </c>
       <c r="Z2">
-        <v>1881.140951503823</v>
+        <v>17783.76522596879</v>
       </c>
       <c r="AA2">
-        <v>1905.221584297403</v>
+        <v>18669.26955713955</v>
       </c>
       <c r="AB2">
-        <v>1925.548822457793</v>
+        <v>19565.14999284259</v>
       </c>
       <c r="AC2">
-        <v>596.9511929558928</v>
+        <v>8998.094461218314</v>
       </c>
       <c r="AD2">
-        <v>645.6593640596743</v>
+        <v>9257.927217680541</v>
       </c>
       <c r="AE2">
-        <v>737.0658097406789</v>
+        <v>9503.247726123691</v>
       </c>
       <c r="AF2">
-        <v>843.884897618356</v>
+        <v>9743.972194603333</v>
       </c>
       <c r="AG2">
-        <v>958.5430728167483</v>
+        <v>10063.2476528419</v>
       </c>
       <c r="AH2">
-        <v>797.8489973853962</v>
+        <v>6345.995461326767</v>
       </c>
       <c r="AI2">
-        <v>746.7328346064758</v>
+        <v>6476.068595016962</v>
       </c>
       <c r="AJ2">
-        <v>742.848625396488</v>
+        <v>6582.373703911414</v>
       </c>
       <c r="AK2">
-        <v>722.8938500247309</v>
+        <v>6613.779819201323</v>
       </c>
       <c r="AL2">
-        <v>690.3854196655719</v>
+        <v>6861.461251927723</v>
       </c>
       <c r="AM2">
-        <v>659.5107010546948</v>
+        <v>9194.942192316457</v>
       </c>
       <c r="AN2">
-        <v>707.0765708684798</v>
+        <v>9843.019487249918</v>
       </c>
       <c r="AO2">
-        <v>884.6478207742946</v>
+        <v>10688.06646843549</v>
       </c>
       <c r="AP2">
-        <v>1093.467524089844</v>
+        <v>11996.94272429802</v>
       </c>
       <c r="AQ2">
-        <v>1368.669045487168</v>
+        <v>13735.25641019025</v>
       </c>
       <c r="AR2">
-        <v>1772.365055769278</v>
+        <v>19484.9448377769</v>
       </c>
       <c r="AS2">
-        <v>2057.867277345538</v>
+        <v>21698.82333271739</v>
       </c>
       <c r="AT2">
-        <v>2103.415440470046</v>
+        <v>22946.04756101987</v>
       </c>
       <c r="AU2">
-        <v>2094.858676987339</v>
+        <v>23955.04847935087</v>
       </c>
       <c r="AV2">
-        <v>2075.075804308584</v>
+        <v>24807.8340744021</v>
       </c>
       <c r="AW2">
-        <v>2029.838557545556</v>
+        <v>26224.82464311193</v>
       </c>
       <c r="AX2">
-        <v>2208.497225708877</v>
+        <v>26896.63855945016</v>
       </c>
       <c r="AY2">
-        <v>2177.713110587016</v>
+        <v>27484.73557862631</v>
       </c>
       <c r="AZ2">
-        <v>2076.260539916232</v>
+        <v>27446.61034472517</v>
       </c>
       <c r="BA2">
-        <v>1820.923413910406</v>
+        <v>26082.46002389158</v>
       </c>
       <c r="BB2">
-        <v>1390.042732003333</v>
+        <v>22388.36311412124</v>
       </c>
       <c r="BC2">
-        <v>1135.208614399103</v>
+        <v>20352.51895220378</v>
       </c>
       <c r="BD2">
-        <v>1160.437258259747</v>
+        <v>20147.06732890056</v>
       </c>
       <c r="BE2">
-        <v>1225.405508487435</v>
+        <v>20038.85804057279</v>
       </c>
       <c r="BF2">
-        <v>1251.798069186615</v>
+        <v>19496.25695922109</v>
       </c>
       <c r="BG2">
-        <v>1189.836598894381</v>
+        <v>17838.30371384399</v>
       </c>
       <c r="BH2">
-        <v>1133.56062518213</v>
+        <v>17159.68100131988</v>
       </c>
       <c r="BI2">
-        <v>1104.916830973195</v>
+        <v>17247.19721974394</v>
       </c>
       <c r="BJ2">
-        <v>1088.007696091246</v>
+        <v>17616.09821399577</v>
       </c>
       <c r="BK2">
-        <v>1078.530123046647</v>
+        <v>18339.77871097467</v>
       </c>
       <c r="BL2">
-        <v>1079.349504199784</v>
+        <v>19126.93319362675</v>
       </c>
       <c r="BM2">
-        <v>1162.8364526521</v>
+        <v>20356.74273514359</v>
       </c>
       <c r="BN2">
-        <v>1326.61347673032</v>
+        <v>21598.11209956566</v>
       </c>
       <c r="BO2">
-        <v>1555.674101150582</v>
+        <v>23332.70846319563</v>
       </c>
       <c r="BP2">
-        <v>1827.665504959881</v>
+        <v>25811.67162229143</v>
       </c>
       <c r="BQ2">
-        <v>2096.476576119128</v>
+        <v>28694.29145185092</v>
       </c>
       <c r="BR2">
-        <v>2312.673199961796</v>
+        <v>31326.3138864377</v>
       </c>
       <c r="BS2">
-        <v>2408.471994842441</v>
+        <v>32926.08012933201</v>
       </c>
       <c r="BT2">
-        <v>2422.243745319309</v>
+        <v>34102.583119664</v>
       </c>
       <c r="BU2">
-        <v>2416.765842865221</v>
+        <v>35175.48673070506</v>
       </c>
       <c r="BV2">
-        <v>2410.485419461037</v>
+        <v>35953.53803153909</v>
       </c>
       <c r="BW2">
-        <v>2431.884709026078</v>
+        <v>36696.67263632076</v>
       </c>
       <c r="BX2">
-        <v>2402.010700683731</v>
+        <v>36950.08351519774</v>
       </c>
       <c r="BY2">
-        <v>2263.809415271548</v>
+        <v>36512.5183713158</v>
       </c>
       <c r="BZ2">
-        <v>2036.779272237575</v>
+        <v>35176.98689564461</v>
       </c>
       <c r="CA2">
-        <v>1762.474307678028</v>
+        <v>33027.78183453746</v>
       </c>
       <c r="CB2">
-        <v>1579.026332289829</v>
+        <v>31427.66749559069</v>
       </c>
       <c r="CC2">
-        <v>1531.162819130985</v>
+        <v>30722.78325665163</v>
       </c>
       <c r="CD2">
-        <v>1553.990445445803</v>
+        <v>30382.26372390749</v>
       </c>
       <c r="CE2">
-        <v>1564.093853497217</v>
+        <v>29848.15576911844</v>
       </c>
       <c r="CF2">
-        <v>1523.873113817788</v>
+        <v>28861.22966905349</v>
       </c>
       <c r="CG2">
-        <v>1485.724499081177</v>
+        <v>28379.76245192881</v>
       </c>
       <c r="CH2">
-        <v>1459.395032553011</v>
+        <v>28449.32216222963</v>
       </c>
       <c r="CI2">
-        <v>1450.154840060701</v>
+        <v>28924.86759880605</v>
       </c>
       <c r="CJ2">
-        <v>1460.964258765303</v>
+        <v>29672.94449238587</v>
       </c>
       <c r="CK2">
-        <v>1484.950572750357</v>
+        <v>30253.42226754791</v>
       </c>
       <c r="CL2">
-        <v>1587.290583698456</v>
+        <v>31478.78885579968</v>
       </c>
       <c r="CM2">
-        <v>1755.099798857897</v>
+        <v>32996.29918874414</v>
       </c>
       <c r="CN2">
-        <v>1973.547585948121</v>
+        <v>34882.10370241394</v>
       </c>
       <c r="CO2">
-        <v>2214.433599690741</v>
+        <v>37170.18485307895</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -956,274 +956,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49064919837422</v>
+        <v>70.90938680416961</v>
       </c>
       <c r="E3">
-        <v>19.15930158912561</v>
+        <v>92.70199149801219</v>
       </c>
       <c r="F3">
-        <v>32.31295944817526</v>
+        <v>92.53448024202002</v>
       </c>
       <c r="G3">
-        <v>23.60785934736749</v>
+        <v>87.86573958004264</v>
       </c>
       <c r="H3">
-        <v>62.55387772592716</v>
+        <v>118.3854490968396</v>
       </c>
       <c r="I3">
-        <v>35.42701304856236</v>
+        <v>85.05947279762793</v>
       </c>
       <c r="J3">
-        <v>39.55998842413841</v>
+        <v>154.7703236052457</v>
       </c>
       <c r="K3">
-        <v>45.54519759462508</v>
+        <v>153.6948769020183</v>
       </c>
       <c r="L3">
-        <v>36.0488934134403</v>
+        <v>136.6265926968036</v>
       </c>
       <c r="M3">
-        <v>44.4769665308222</v>
+        <v>125.7086422749683</v>
       </c>
       <c r="N3">
-        <v>21.65786922911069</v>
+        <v>270.5208534961475</v>
       </c>
       <c r="O3">
-        <v>24.33727730879803</v>
+        <v>163.487329432693</v>
       </c>
       <c r="P3">
-        <v>50.25005872001523</v>
+        <v>328.8523186222898</v>
       </c>
       <c r="Q3">
-        <v>52.9843324361967</v>
+        <v>354.1222071524466</v>
       </c>
       <c r="R3">
-        <v>55.97683781137984</v>
+        <v>379.6613006574929</v>
       </c>
       <c r="S3">
-        <v>150.6724676416256</v>
+        <v>835.3871974255989</v>
       </c>
       <c r="T3">
-        <v>158.5026620456505</v>
+        <v>896.3964028981886</v>
       </c>
       <c r="U3">
-        <v>165.5210257403637</v>
+        <v>956.9855225071067</v>
       </c>
       <c r="V3">
-        <v>171.2128043319518</v>
+        <v>1016.447859991682</v>
       </c>
       <c r="W3">
-        <v>177.345362102207</v>
+        <v>1076.119368111812</v>
       </c>
       <c r="X3">
-        <v>162.8177760761797</v>
+        <v>1078.549506035471</v>
       </c>
       <c r="Y3">
-        <v>164.2667107064588</v>
+        <v>1134.688168659768</v>
       </c>
       <c r="Z3">
-        <v>165.8678957384249</v>
+        <v>1192.323571565173</v>
       </c>
       <c r="AA3">
-        <v>167.961522384665</v>
+        <v>1251.764610602361</v>
       </c>
       <c r="AB3">
-        <v>169.7120339851988</v>
+        <v>1311.898914220741</v>
       </c>
       <c r="AC3">
-        <v>49.21263679892908</v>
+        <v>602.3014660295103</v>
       </c>
       <c r="AD3">
-        <v>53.55553657650978</v>
+        <v>619.7418132284744</v>
       </c>
       <c r="AE3">
-        <v>61.80216360903011</v>
+        <v>636.2245613760315</v>
       </c>
       <c r="AF3">
-        <v>71.45774003682166</v>
+        <v>652.4157244580994</v>
       </c>
       <c r="AG3">
-        <v>81.82975574466693</v>
+        <v>673.8901399156903</v>
       </c>
       <c r="AH3">
-        <v>67.17582187819954</v>
+        <v>424.2809798094349</v>
       </c>
       <c r="AI3">
-        <v>62.38790871213266</v>
+        <v>433.0167366873393</v>
       </c>
       <c r="AJ3">
-        <v>61.91778094866915</v>
+        <v>440.1365079527526</v>
       </c>
       <c r="AK3">
-        <v>59.97742646950103</v>
+        <v>442.2188005662213</v>
       </c>
       <c r="AL3">
-        <v>56.88810291351388</v>
+        <v>458.8992080832751</v>
       </c>
       <c r="AM3">
-        <v>53.94613581956795</v>
+        <v>615.7876572790403</v>
       </c>
       <c r="AN3">
-        <v>58.17383995082776</v>
+        <v>659.7321359836086</v>
       </c>
       <c r="AO3">
-        <v>74.28572987507006</v>
+        <v>717.2016047429411</v>
       </c>
       <c r="AP3">
-        <v>93.25330653388623</v>
+        <v>805.8619064389163</v>
       </c>
       <c r="AQ3">
-        <v>118.2880910731626</v>
+        <v>923.4673105499465</v>
       </c>
       <c r="AR3">
-        <v>155.0649228321124</v>
+        <v>1310.887935366124</v>
       </c>
       <c r="AS3">
-        <v>181.0378190460893</v>
+        <v>1460.497046607798</v>
       </c>
       <c r="AT3">
-        <v>185.0770583134518</v>
+        <v>1544.231907814394</v>
       </c>
       <c r="AU3">
-        <v>184.1715822168485</v>
+        <v>1611.882742360421</v>
       </c>
       <c r="AV3">
-        <v>182.2283452181079</v>
+        <v>1669.164642473392</v>
       </c>
       <c r="AW3">
-        <v>177.9591596406291</v>
+        <v>1764.304629162707</v>
       </c>
       <c r="AX3">
-        <v>193.9993863095798</v>
+        <v>1809.473657853007</v>
       </c>
       <c r="AY3">
-        <v>191.0594820771253</v>
+        <v>1849.136537222473</v>
       </c>
       <c r="AZ3">
-        <v>181.661872988627</v>
+        <v>1846.5055747648</v>
       </c>
       <c r="BA3">
-        <v>158.199518464405</v>
+        <v>1754.060220115057</v>
       </c>
       <c r="BB3">
-        <v>118.7020495533847</v>
+        <v>1504.225227661052</v>
       </c>
       <c r="BC3">
-        <v>95.27743978008874</v>
+        <v>1366.188489736415</v>
       </c>
       <c r="BD3">
-        <v>97.45437051300136</v>
+        <v>1352.294621678701</v>
       </c>
       <c r="BE3">
-        <v>103.2639921747264</v>
+        <v>1345.067926932833</v>
       </c>
       <c r="BF3">
-        <v>105.5465535544611</v>
+        <v>1308.474527925607</v>
       </c>
       <c r="BG3">
-        <v>99.76247449812806</v>
+        <v>1196.742356759637</v>
       </c>
       <c r="BH3">
-        <v>94.47547062328213</v>
+        <v>1151.026150468812</v>
       </c>
       <c r="BI3">
-        <v>91.71258177851013</v>
+        <v>1157.230078478857</v>
       </c>
       <c r="BJ3">
-        <v>90.02055601982306</v>
+        <v>1182.315820022094</v>
       </c>
       <c r="BK3">
-        <v>89.00589706220322</v>
+        <v>1231.585320171458</v>
       </c>
       <c r="BL3">
-        <v>88.93904253386552</v>
+        <v>1285.770614857433</v>
       </c>
       <c r="BM3">
-        <v>96.41226197918628</v>
+        <v>1370.334872576204</v>
       </c>
       <c r="BN3">
-        <v>111.2242701232022</v>
+        <v>1456.113329903284</v>
       </c>
       <c r="BO3">
-        <v>132.003344917582</v>
+        <v>1575.290255428609</v>
       </c>
       <c r="BP3">
-        <v>156.7061291844507</v>
+        <v>1744.737526646899</v>
       </c>
       <c r="BQ3">
-        <v>181.1171306132256</v>
+        <v>1941.506945736305</v>
       </c>
       <c r="BR3">
-        <v>200.7076339458179</v>
+        <v>2120.264744832425</v>
       </c>
       <c r="BS3">
-        <v>209.292613633253</v>
+        <v>2227.704663170226</v>
       </c>
       <c r="BT3">
-        <v>210.3797532793848</v>
+        <v>2305.490516453831</v>
       </c>
       <c r="BU3">
-        <v>209.7077656541838</v>
+        <v>2375.799551047168</v>
       </c>
       <c r="BV3">
-        <v>208.9638419562984</v>
+        <v>2426.29704588932</v>
       </c>
       <c r="BW3">
-        <v>210.740445445418</v>
+        <v>2474.628458472992</v>
       </c>
       <c r="BX3">
-        <v>207.8311727373085</v>
+        <v>2490.081858660742</v>
       </c>
       <c r="BY3">
-        <v>195.0207968165919</v>
+        <v>2458.89742803387</v>
       </c>
       <c r="BZ3">
-        <v>174.0917701532136</v>
+        <v>2367.100791175317</v>
       </c>
       <c r="CA3">
-        <v>148.8433835439912</v>
+        <v>2220.629747317248</v>
       </c>
       <c r="CB3">
-        <v>131.8904058900965</v>
+        <v>2111.613910759346</v>
       </c>
       <c r="CC3">
-        <v>127.3323112683245</v>
+        <v>2063.589314656735</v>
       </c>
       <c r="CD3">
-        <v>129.2367551971173</v>
+        <v>2040.490753118993</v>
       </c>
       <c r="CE3">
-        <v>129.9781762696146</v>
+        <v>2004.403438242335</v>
       </c>
       <c r="CF3">
-        <v>126.1199470454795</v>
+        <v>1937.854390879695</v>
       </c>
       <c r="CG3">
-        <v>122.4379819161049</v>
+        <v>1905.386732903357</v>
       </c>
       <c r="CH3">
-        <v>119.8357142896104</v>
+        <v>1910.202617927986</v>
       </c>
       <c r="CI3">
-        <v>118.7948052494215</v>
+        <v>1942.568189715132</v>
       </c>
       <c r="CJ3">
-        <v>119.5857647100402</v>
+        <v>1993.597800236305</v>
       </c>
       <c r="CK3">
-        <v>121.5865656523833</v>
+        <v>2033.943432068922</v>
       </c>
       <c r="CL3">
-        <v>130.7318953570895</v>
+        <v>2118.460155745729</v>
       </c>
       <c r="CM3">
-        <v>145.8612488329454</v>
+        <v>2223.453692635691</v>
       </c>
       <c r="CN3">
-        <v>165.6189471399971</v>
+        <v>2353.546346981626</v>
       </c>
       <c r="CO3">
-        <v>187.4271387535117</v>
+        <v>2510.700914188239</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -1233,274 +1233,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474387.15107802</v>
+        <v>1624041.439607251</v>
       </c>
       <c r="E4">
-        <v>26777233.22951134</v>
+        <v>1458766.412434268</v>
       </c>
       <c r="F4">
-        <v>29376217.89879272</v>
+        <v>1273405.69255842</v>
       </c>
       <c r="G4">
-        <v>29467656.44331267</v>
+        <v>1477019.951013278</v>
       </c>
       <c r="H4">
-        <v>26832749.82087819</v>
+        <v>1623019.393762161</v>
       </c>
       <c r="I4">
-        <v>26319381.67613481</v>
+        <v>1542300.070070287</v>
       </c>
       <c r="J4">
-        <v>29027603.2828952</v>
+        <v>1676455.311383151</v>
       </c>
       <c r="K4">
-        <v>32847867.91636285</v>
+        <v>1536955.151923629</v>
       </c>
       <c r="L4">
-        <v>32625138.00333385</v>
+        <v>1525630.425851994</v>
       </c>
       <c r="M4">
-        <v>34705084.84108179</v>
+        <v>2033476.625803686</v>
       </c>
       <c r="N4">
-        <v>37557525.62608365</v>
+        <v>1924310.356061776</v>
       </c>
       <c r="O4">
-        <v>34840548.44552797</v>
+        <v>1897390.052219521</v>
       </c>
       <c r="P4">
-        <v>38685545.48552711</v>
+        <v>9893378.189642761</v>
       </c>
       <c r="Q4">
-        <v>39830989.21263755</v>
+        <v>9922754.265811106</v>
       </c>
       <c r="R4">
-        <v>40981324.77178311</v>
+        <v>9962376.061203176</v>
       </c>
       <c r="S4">
-        <v>45624738.35220082</v>
+        <v>31236799.74372068</v>
       </c>
       <c r="T4">
-        <v>46540369.16020796</v>
+        <v>31304363.63639971</v>
       </c>
       <c r="U4">
-        <v>47443583.68108291</v>
+        <v>31360649.87987939</v>
       </c>
       <c r="V4">
-        <v>48345066.273838</v>
+        <v>31422453.45211275</v>
       </c>
       <c r="W4">
-        <v>49246329.23952185</v>
+        <v>31494916.3614589</v>
       </c>
       <c r="X4">
-        <v>50416452.34727404</v>
+        <v>32422326.73486704</v>
       </c>
       <c r="Y4">
-        <v>51760914.35706254</v>
+        <v>32510551.39327516</v>
       </c>
       <c r="Z4">
-        <v>53105188.51341996</v>
+        <v>32610420.8610299</v>
       </c>
       <c r="AA4">
-        <v>54450294.84884323</v>
+        <v>32721699.20354478</v>
       </c>
       <c r="AB4">
-        <v>55794578.61370784</v>
+        <v>32832303.99307879</v>
       </c>
       <c r="AC4">
-        <v>54925754.88552427</v>
+        <v>8863912.691510627</v>
       </c>
       <c r="AD4">
-        <v>56274584.53073351</v>
+        <v>8963976.692957362</v>
       </c>
       <c r="AE4">
-        <v>57623669.94651502</v>
+        <v>9072301.068228647</v>
       </c>
       <c r="AF4">
-        <v>58973411.72711165</v>
+        <v>9223214.323126368</v>
       </c>
       <c r="AG4">
-        <v>60323810.2332489</v>
+        <v>9418958.256518669</v>
       </c>
       <c r="AH4">
-        <v>61310852.40899279</v>
+        <v>2597011.499831922</v>
       </c>
       <c r="AI4">
-        <v>62680574.86570954</v>
+        <v>2588735.258362273</v>
       </c>
       <c r="AJ4">
-        <v>64050394.09323916</v>
+        <v>2551446.460087054</v>
       </c>
       <c r="AK4">
-        <v>65422257.91690966</v>
+        <v>2761159.47529253</v>
       </c>
       <c r="AL4">
-        <v>66797670.5223157</v>
+        <v>3126095.318933829</v>
       </c>
       <c r="AM4">
-        <v>68151349.91739938</v>
+        <v>6763387.521644049</v>
       </c>
       <c r="AN4">
-        <v>69514933.99580482</v>
+        <v>7541971.660683696</v>
       </c>
       <c r="AO4">
-        <v>70888606.53290659</v>
+        <v>8591278.180998595</v>
       </c>
       <c r="AP4">
-        <v>72267256.79404767</v>
+        <v>9790346.83914605</v>
       </c>
       <c r="AQ4">
-        <v>73658646.59393993</v>
+        <v>11156403.1314864</v>
       </c>
       <c r="AR4">
-        <v>75056331.84359257</v>
+        <v>17822287.11104571</v>
       </c>
       <c r="AS4">
-        <v>76434413.30571778</v>
+        <v>19244139.60825533</v>
       </c>
       <c r="AT4">
-        <v>77773357.61913842</v>
+        <v>20161296.93212143</v>
       </c>
       <c r="AU4">
-        <v>79103333.61647516</v>
+        <v>20893977.82094369</v>
       </c>
       <c r="AV4">
-        <v>80629781.92068826</v>
+        <v>21453182.37757538</v>
       </c>
       <c r="AW4">
-        <v>82097108.45940793</v>
+        <v>23136487.00131269</v>
       </c>
       <c r="AX4">
-        <v>83618178.83494794</v>
+        <v>23293343.87456686</v>
       </c>
       <c r="AY4">
-        <v>85028825.10787524</v>
+        <v>23239118.88000523</v>
       </c>
       <c r="AZ4">
-        <v>86427133.77064401</v>
+        <v>22815688.46181137</v>
       </c>
       <c r="BA4">
-        <v>87799655.4069034</v>
+        <v>21854618.53887173</v>
       </c>
       <c r="BB4">
-        <v>89192636.25534937</v>
+        <v>19439301.26091432</v>
       </c>
       <c r="BC4">
-        <v>90647948.02644295</v>
+        <v>18133396.60786892</v>
       </c>
       <c r="BD4">
-        <v>92144220.91134262</v>
+        <v>17323779.91531004</v>
       </c>
       <c r="BE4">
-        <v>93645759.58320251</v>
+        <v>16562019.64888493</v>
       </c>
       <c r="BF4">
-        <v>95143933.75094476</v>
+        <v>15764594.68509706</v>
       </c>
       <c r="BG4">
-        <v>96672646.46970063</v>
+        <v>14553814.8495709</v>
       </c>
       <c r="BH4">
-        <v>98245335.76734142</v>
+        <v>14025518.34905308</v>
       </c>
       <c r="BI4">
-        <v>99824730.35838246</v>
+        <v>13721889.91827653</v>
       </c>
       <c r="BJ4">
-        <v>101407962.8517179</v>
+        <v>13619492.2552398</v>
       </c>
       <c r="BK4">
-        <v>102995951.3706818</v>
+        <v>13731286.6367783</v>
       </c>
       <c r="BL4">
-        <v>104609875.9285424</v>
+        <v>13967857.49541587</v>
       </c>
       <c r="BM4">
-        <v>106263350.2472796</v>
+        <v>14626481.30914004</v>
       </c>
       <c r="BN4">
-        <v>107925748.6119896</v>
+        <v>15525098.45409481</v>
       </c>
       <c r="BO4">
-        <v>109596393.8649862</v>
+        <v>16668049.87002457</v>
       </c>
       <c r="BP4">
-        <v>111274268.0262758</v>
+        <v>18044483.79938234</v>
       </c>
       <c r="BQ4">
-        <v>113041222.4295538</v>
+        <v>19546010.70420726</v>
       </c>
       <c r="BR4">
-        <v>114819066.6257008</v>
+        <v>20885071.3500647</v>
       </c>
       <c r="BS4">
-        <v>116577262.4863008</v>
+        <v>21842192.82337456</v>
       </c>
       <c r="BT4">
-        <v>118322015.3851591</v>
+        <v>22574590.63773394</v>
       </c>
       <c r="BU4">
-        <v>120063281.4408132</v>
+        <v>23188585.61609882</v>
       </c>
       <c r="BV4">
-        <v>121862979.9423083</v>
+        <v>23549056.92060918</v>
       </c>
       <c r="BW4">
-        <v>123685162.5292389</v>
+        <v>23893482.88667121</v>
       </c>
       <c r="BX4">
-        <v>125498215.0615451</v>
+        <v>24015733.65660311</v>
       </c>
       <c r="BY4">
-        <v>127292970.3509128</v>
+        <v>23849723.18631139</v>
       </c>
       <c r="BZ4">
-        <v>129072095.4539527</v>
+        <v>23349757.25138443</v>
       </c>
       <c r="CA4">
-        <v>130906593.0914355</v>
+        <v>22399565.9883786</v>
       </c>
       <c r="CB4">
-        <v>132773039.8140689</v>
+        <v>21751454.72070359</v>
       </c>
       <c r="CC4">
-        <v>134659062.8851214</v>
+        <v>21435422.13866214</v>
       </c>
       <c r="CD4">
-        <v>136556174.1941223</v>
+        <v>21093926.40048243</v>
       </c>
       <c r="CE4">
-        <v>138453564.6810147</v>
+        <v>20696045.21017588</v>
       </c>
       <c r="CF4">
-        <v>140414188.4477791</v>
+        <v>19909063.23569653</v>
       </c>
       <c r="CG4">
-        <v>142401772.677067</v>
+        <v>19529215.58450449</v>
       </c>
       <c r="CH4">
-        <v>144394119.6461688</v>
+        <v>19266150.45463023</v>
       </c>
       <c r="CI4">
-        <v>146391181.0537207</v>
+        <v>19122299.96079426</v>
       </c>
       <c r="CJ4">
-        <v>148393079.0988192</v>
+        <v>19094841.57939191</v>
       </c>
       <c r="CK4">
-        <v>150450946.7750308</v>
+        <v>18620405.12372857</v>
       </c>
       <c r="CL4">
-        <v>152550979.3449514</v>
+        <v>18866722.15593047</v>
       </c>
       <c r="CM4">
-        <v>154659279.941151</v>
+        <v>19416934.23493317</v>
       </c>
       <c r="CN4">
-        <v>156774017.3108022</v>
+        <v>20204236.12329106</v>
       </c>
       <c r="CO4">
-        <v>158891900.461678</v>
+        <v>21142696.54209817</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1510,274 +1510,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694797.891812964</v>
+        <v>2149532.838667813</v>
       </c>
       <c r="E5">
-        <v>995983.1008120697</v>
+        <v>1439334.420566904</v>
       </c>
       <c r="F5">
-        <v>499198.6571567085</v>
+        <v>1345193.150608144</v>
       </c>
       <c r="G5">
-        <v>306787.5233016743</v>
+        <v>1296163.750486817</v>
       </c>
       <c r="H5">
-        <v>287560.2535441217</v>
+        <v>1243334.25289924</v>
       </c>
       <c r="I5">
-        <v>203998.1177931496</v>
+        <v>1552931.094250016</v>
       </c>
       <c r="J5">
-        <v>166965.9350158124</v>
+        <v>1707359.189295776</v>
       </c>
       <c r="K5">
-        <v>215746.7516235104</v>
+        <v>1482879.837384105</v>
       </c>
       <c r="L5">
-        <v>391764.6921703477</v>
+        <v>1369014.578246042</v>
       </c>
       <c r="M5">
-        <v>343372.4470192878</v>
+        <v>1528379.671378297</v>
       </c>
       <c r="N5">
-        <v>433157.5957724058</v>
+        <v>1600850.013738674</v>
       </c>
       <c r="O5">
-        <v>543884.2090565419</v>
+        <v>2085965.510764822</v>
       </c>
       <c r="P5">
-        <v>3545963.858423309</v>
+        <v>16271076.12814821</v>
       </c>
       <c r="Q5">
-        <v>3627469.503630543</v>
+        <v>16284727.49238027</v>
       </c>
       <c r="R5">
-        <v>3712241.210403088</v>
+        <v>16302728.06010619</v>
       </c>
       <c r="S5">
-        <v>11984586.49921363</v>
+        <v>54128083.79658392</v>
       </c>
       <c r="T5">
-        <v>12234440.14581261</v>
+        <v>54157862.25802696</v>
       </c>
       <c r="U5">
-        <v>12489589.11583964</v>
+        <v>54195259.57262281</v>
       </c>
       <c r="V5">
-        <v>12750617.23086151</v>
+        <v>54241684.3765258</v>
       </c>
       <c r="W5">
-        <v>13017978.58825553</v>
+        <v>54298846.30309785</v>
       </c>
       <c r="X5">
-        <v>12479923.0223774</v>
+        <v>57166713.46909872</v>
       </c>
       <c r="Y5">
-        <v>12526926.61619411</v>
+        <v>57252677.30464419</v>
       </c>
       <c r="Z5">
-        <v>12578658.57761739</v>
+        <v>57358489.33994946</v>
       </c>
       <c r="AA5">
-        <v>12634790.67090814</v>
+        <v>57489633.6131979</v>
       </c>
       <c r="AB5">
-        <v>12695179.81074199</v>
+        <v>57653627.0084656</v>
       </c>
       <c r="AC5">
-        <v>2469715.884210044</v>
+        <v>16143019.2846603</v>
       </c>
       <c r="AD5">
-        <v>2540692.211828283</v>
+        <v>16406946.95932143</v>
       </c>
       <c r="AE5">
-        <v>2620452.256769266</v>
+        <v>16745886.62296071</v>
       </c>
       <c r="AF5">
-        <v>2713885.095459689</v>
+        <v>17183297.19746133</v>
       </c>
       <c r="AG5">
-        <v>2828377.753939475</v>
+        <v>17748543.488598</v>
       </c>
       <c r="AH5">
-        <v>1027436.50617295</v>
+        <v>5803218.918876505</v>
       </c>
       <c r="AI5">
-        <v>1216526.132463598</v>
+        <v>6188692.302600496</v>
       </c>
       <c r="AJ5">
-        <v>1463012.961998126</v>
+        <v>6699840.481948061</v>
       </c>
       <c r="AK5">
-        <v>1780889.108709084</v>
+        <v>7973581.263583386</v>
       </c>
       <c r="AL5">
-        <v>2182408.291735325</v>
+        <v>9570020.617483588</v>
       </c>
       <c r="AM5">
-        <v>2676085.657718607</v>
+        <v>17524956.25888188</v>
       </c>
       <c r="AN5">
-        <v>3264788.104627739</v>
+        <v>20081697.56749643</v>
       </c>
       <c r="AO5">
-        <v>3944148.237743212</v>
+        <v>23010883.34432738</v>
       </c>
       <c r="AP5">
-        <v>4701411.753200857</v>
+        <v>26272793.85742076</v>
       </c>
       <c r="AQ5">
-        <v>5514830.239039116</v>
+        <v>29791261.30575</v>
       </c>
       <c r="AR5">
-        <v>6353730.169221141</v>
+        <v>41654213.21321351</v>
       </c>
       <c r="AS5">
-        <v>7179459.222599423</v>
+        <v>45303206.54422671</v>
       </c>
       <c r="AT5">
-        <v>7947623.669205504</v>
+        <v>48760296.88609564</v>
       </c>
       <c r="AU5">
-        <v>8611601.6109544</v>
+        <v>51830028.03101502</v>
       </c>
       <c r="AV5">
-        <v>10439971.96865045</v>
+        <v>54322100.47141062</v>
       </c>
       <c r="AW5">
-        <v>11141923.67890129</v>
+        <v>58472680.97633749</v>
       </c>
       <c r="AX5">
-        <v>11263111.40277549</v>
+        <v>59368847.89347441</v>
       </c>
       <c r="AY5">
-        <v>11166554.35979524</v>
+        <v>59358352.99105908</v>
       </c>
       <c r="AZ5">
-        <v>10861030.26899425</v>
+        <v>58460115.97249331</v>
       </c>
       <c r="BA5">
-        <v>10371435.06575221</v>
+        <v>56760626.57358983</v>
       </c>
       <c r="BB5">
-        <v>9545038.768973388</v>
+        <v>53006663.04814498</v>
       </c>
       <c r="BC5">
-        <v>8810313.228710137</v>
+        <v>50177542.53874425</v>
       </c>
       <c r="BD5">
-        <v>8028089.468322214</v>
+        <v>47088213.60213916</v>
       </c>
       <c r="BE5">
-        <v>7250650.838714475</v>
+        <v>43961697.62849503</v>
       </c>
       <c r="BF5">
-        <v>6527591.602187592</v>
+        <v>41018461.52482866</v>
       </c>
       <c r="BG5">
-        <v>5714434.540912695</v>
+        <v>37691062.25713053</v>
       </c>
       <c r="BH5">
-        <v>5222100.880456887</v>
+        <v>35693039.56283762</v>
       </c>
       <c r="BI5">
-        <v>4885157.716460675</v>
+        <v>34378525.29827229</v>
       </c>
       <c r="BJ5">
-        <v>4712971.755619921</v>
+        <v>33817106.62751946</v>
       </c>
       <c r="BK5">
-        <v>4702036.405936882</v>
+        <v>34021619.55766597</v>
       </c>
       <c r="BL5">
-        <v>4697059.067971377</v>
+        <v>34850111.48368583</v>
       </c>
       <c r="BM5">
-        <v>4960819.87361028</v>
+        <v>36439934.39003533</v>
       </c>
       <c r="BN5">
-        <v>5328925.383201559</v>
+        <v>38588365.66830344</v>
       </c>
       <c r="BO5">
-        <v>5778371.037303502</v>
+        <v>41183434.65962987</v>
       </c>
       <c r="BP5">
-        <v>6286999.352909161</v>
+        <v>44103571.390705</v>
       </c>
       <c r="BQ5">
-        <v>6734670.14808272</v>
+        <v>47244638.59141017</v>
       </c>
       <c r="BR5">
-        <v>7297515.419815136</v>
+        <v>50426594.16242123</v>
       </c>
       <c r="BS5">
-        <v>7855610.134777904</v>
+        <v>53543474.14947188</v>
       </c>
       <c r="BT5">
-        <v>8387890.565744214</v>
+        <v>56472682.76321821</v>
       </c>
       <c r="BU5">
-        <v>8873904.279063184</v>
+        <v>59104590.67005303</v>
       </c>
       <c r="BV5">
-        <v>9198135.264609629</v>
+        <v>61127383.72147793</v>
       </c>
       <c r="BW5">
-        <v>9535996.059130456</v>
+        <v>62908929.06266367</v>
       </c>
       <c r="BX5">
-        <v>9777036.375378247</v>
+        <v>64182530.92734092</v>
       </c>
       <c r="BY5">
-        <v>9911345.3371277</v>
+        <v>64927984.2128974</v>
       </c>
       <c r="BZ5">
-        <v>9934457.78118659</v>
+        <v>65153564.29825503</v>
       </c>
       <c r="CA5">
-        <v>9747255.346962988</v>
+        <v>64504823.80108631</v>
       </c>
       <c r="CB5">
-        <v>9560861.395703649</v>
+        <v>63825762.70336776</v>
       </c>
       <c r="CC5">
-        <v>9289836.221559463</v>
+        <v>62809037.71525215</v>
       </c>
       <c r="CD5">
-        <v>8955542.86934077</v>
+        <v>61554186.50489237</v>
       </c>
       <c r="CE5">
-        <v>8583249.397878574</v>
+        <v>60170694.93972015</v>
       </c>
       <c r="CF5">
-        <v>8085849.883372086</v>
+        <v>58100982.79391352</v>
       </c>
       <c r="CG5">
-        <v>7717533.329355941</v>
+        <v>56795499.49479061</v>
       </c>
       <c r="CH5">
-        <v>7387677.378665099</v>
+        <v>55683157.09047324</v>
       </c>
       <c r="CI5">
-        <v>7115444.206761011</v>
+        <v>54847495.78341868</v>
       </c>
       <c r="CJ5">
-        <v>6914925.79550981</v>
+        <v>54351827.98605632</v>
       </c>
       <c r="CK5">
-        <v>6639025.161351602</v>
+        <v>53184328.53227523</v>
       </c>
       <c r="CL5">
-        <v>6602830.371405751</v>
+        <v>53466631.74166207</v>
       </c>
       <c r="CM5">
-        <v>6649012.690390951</v>
+        <v>54140278.74629265</v>
       </c>
       <c r="CN5">
-        <v>6771706.150888409</v>
+        <v>55178057.45906247</v>
       </c>
       <c r="CO5">
-        <v>6961386.437323859</v>
+        <v>56534420.49125887</v>
       </c>
     </row>
   </sheetData>
@@ -2080,274 +2080,274 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>262.0274379424926</v>
+        <v>1072.34614200176</v>
       </c>
       <c r="E2">
-        <v>564.6433745157517</v>
+        <v>2470.031396311328</v>
       </c>
       <c r="F2">
-        <v>1064.87552694432</v>
+        <v>3866.983354738923</v>
       </c>
       <c r="G2">
-        <v>1435.48393505994</v>
+        <v>5194.438641432769</v>
       </c>
       <c r="H2">
-        <v>2384.483940532652</v>
+        <v>6974.843183114307</v>
       </c>
       <c r="I2">
-        <v>2929.765285521555</v>
+        <v>8259.23289510108</v>
       </c>
       <c r="J2">
-        <v>3538.257528997431</v>
+        <v>10583.22199605458</v>
       </c>
       <c r="K2">
-        <v>4238.144213543071</v>
+        <v>12893.46514428076</v>
       </c>
       <c r="L2">
-        <v>4795.971440850181</v>
+        <v>14948.90346863319</v>
       </c>
       <c r="M2">
-        <v>5480.372549942761</v>
+        <v>16842.93601860225</v>
       </c>
       <c r="N2">
-        <v>5827.235338890871</v>
+        <v>20894.39951091249</v>
       </c>
       <c r="O2">
-        <v>6211.855549429916</v>
+        <v>23350.20048292178</v>
       </c>
       <c r="P2">
-        <v>6983.561228843831</v>
+        <v>28269.97163709926</v>
       </c>
       <c r="Q2">
-        <v>7762.104022987494</v>
+        <v>33566.49919868324</v>
       </c>
       <c r="R2">
-        <v>8550.532594442122</v>
+        <v>39243.76709975288</v>
       </c>
       <c r="S2">
-        <v>10536.07278830066</v>
+        <v>51709.00659059441</v>
       </c>
       <c r="T2">
-        <v>12540.948496521</v>
+        <v>65083.21449701278</v>
       </c>
       <c r="U2">
-        <v>14554.23145946571</v>
+        <v>79360.17490967702</v>
       </c>
       <c r="V2">
-        <v>16560.41157185059</v>
+        <v>94523.10787412638</v>
       </c>
       <c r="W2">
-        <v>18565.03460580661</v>
+        <v>110575.1033663962</v>
       </c>
       <c r="X2">
-        <v>20410.45494979602</v>
+        <v>126663.8939746529</v>
       </c>
       <c r="Y2">
-        <v>22272.90284564356</v>
+        <v>143589.050895273</v>
       </c>
       <c r="Z2">
-        <v>24154.04379714739</v>
+        <v>161372.8161212418</v>
       </c>
       <c r="AA2">
-        <v>26059.26538144479</v>
+        <v>180042.0856783813</v>
       </c>
       <c r="AB2">
-        <v>27984.81420390258</v>
+        <v>199607.2356712239</v>
       </c>
       <c r="AC2">
-        <v>28581.76539685848</v>
+        <v>208605.3301324422</v>
       </c>
       <c r="AD2">
-        <v>29227.42476091815</v>
+        <v>217863.2573501228</v>
       </c>
       <c r="AE2">
-        <v>29964.49057065883</v>
+        <v>227366.5050762465</v>
       </c>
       <c r="AF2">
-        <v>30808.37546827718</v>
+        <v>237110.4772708498</v>
       </c>
       <c r="AG2">
-        <v>31766.91854109393</v>
+        <v>247173.7249236917</v>
       </c>
       <c r="AH2">
-        <v>32564.76753847933</v>
+        <v>253519.7203850184</v>
       </c>
       <c r="AI2">
-        <v>33311.50037308581</v>
+        <v>259995.7889800354</v>
       </c>
       <c r="AJ2">
-        <v>34054.3489984823</v>
+        <v>266578.1626839468</v>
       </c>
       <c r="AK2">
-        <v>34777.24284850703</v>
+        <v>273191.9425031482</v>
       </c>
       <c r="AL2">
-        <v>35467.6282681726</v>
+        <v>280053.4037550759</v>
       </c>
       <c r="AM2">
-        <v>36127.13896922729</v>
+        <v>289248.3459473923</v>
       </c>
       <c r="AN2">
-        <v>36834.21554009577</v>
+        <v>299091.3654346422</v>
       </c>
       <c r="AO2">
-        <v>37718.86336087006</v>
+        <v>309779.4319030778</v>
       </c>
       <c r="AP2">
-        <v>38812.33088495991</v>
+        <v>321776.3746273758</v>
       </c>
       <c r="AQ2">
-        <v>40180.99993044707</v>
+        <v>335511.6310375661</v>
       </c>
       <c r="AR2">
-        <v>41953.36498621634</v>
+        <v>354996.5758753429</v>
       </c>
       <c r="AS2">
-        <v>44011.23226356188</v>
+        <v>376695.3992080603</v>
       </c>
       <c r="AT2">
-        <v>46114.64770403193</v>
+        <v>399641.4467690802</v>
       </c>
       <c r="AU2">
-        <v>48209.50638101927</v>
+        <v>423596.4952484311</v>
       </c>
       <c r="AV2">
-        <v>50284.58218532785</v>
+        <v>448404.3293228332</v>
       </c>
       <c r="AW2">
-        <v>52314.4207428734</v>
+        <v>474629.1539659451</v>
       </c>
       <c r="AX2">
-        <v>54522.91796858227</v>
+        <v>501525.7925253953</v>
       </c>
       <c r="AY2">
-        <v>56700.63107916929</v>
+        <v>529010.5281040216</v>
       </c>
       <c r="AZ2">
-        <v>58776.89161908552</v>
+        <v>556457.1384487468</v>
       </c>
       <c r="BA2">
-        <v>60597.81503299593</v>
+        <v>582539.5984726383</v>
       </c>
       <c r="BB2">
-        <v>61987.85776499927</v>
+        <v>604927.9615867595</v>
       </c>
       <c r="BC2">
-        <v>63123.06637939837</v>
+        <v>625280.4805389633</v>
       </c>
       <c r="BD2">
-        <v>64283.50363765812</v>
+        <v>645427.5478678639</v>
       </c>
       <c r="BE2">
-        <v>65508.90914614555</v>
+        <v>665466.4059084367</v>
       </c>
       <c r="BF2">
-        <v>66760.70721533216</v>
+        <v>684962.6628676578</v>
       </c>
       <c r="BG2">
-        <v>67950.54381422655</v>
+        <v>702800.9665815019</v>
       </c>
       <c r="BH2">
-        <v>69084.10443940868</v>
+        <v>719960.6475828218</v>
       </c>
       <c r="BI2">
-        <v>70189.02127038187</v>
+        <v>737207.8448025658</v>
       </c>
       <c r="BJ2">
-        <v>71277.02896647311</v>
+        <v>754823.9430165616</v>
       </c>
       <c r="BK2">
-        <v>72355.55908951975</v>
+        <v>773163.7217275363</v>
       </c>
       <c r="BL2">
-        <v>73434.90859371953</v>
+        <v>792290.654921163</v>
       </c>
       <c r="BM2">
-        <v>74597.74504637164</v>
+        <v>812647.3976563066</v>
       </c>
       <c r="BN2">
-        <v>75924.35852310195</v>
+        <v>834245.5097558723</v>
       </c>
       <c r="BO2">
-        <v>77480.03262425253</v>
+        <v>857578.2182190679</v>
       </c>
       <c r="BP2">
-        <v>79307.69812921241</v>
+        <v>883389.8898413593</v>
       </c>
       <c r="BQ2">
-        <v>81404.17470533153</v>
+        <v>912084.1812932102</v>
       </c>
       <c r="BR2">
-        <v>83716.84790529333</v>
+        <v>943410.4951796479</v>
       </c>
       <c r="BS2">
-        <v>86125.31990013577</v>
+        <v>976336.57530898</v>
       </c>
       <c r="BT2">
-        <v>88547.56364545508</v>
+        <v>1010439.158428644</v>
       </c>
       <c r="BU2">
-        <v>90964.32948832031</v>
+        <v>1045614.645159349</v>
       </c>
       <c r="BV2">
-        <v>93374.81490778134</v>
+        <v>1081568.183190888</v>
       </c>
       <c r="BW2">
-        <v>95806.69961680743</v>
+        <v>1118264.855827209</v>
       </c>
       <c r="BX2">
-        <v>98208.71031749116</v>
+        <v>1155214.939342407</v>
       </c>
       <c r="BY2">
-        <v>100472.5197327627</v>
+        <v>1191727.457713722</v>
       </c>
       <c r="BZ2">
-        <v>102509.2990050003</v>
+        <v>1226904.444609367</v>
       </c>
       <c r="CA2">
-        <v>104271.7733126783</v>
+        <v>1259932.226443904</v>
       </c>
       <c r="CB2">
-        <v>105850.7996449681</v>
+        <v>1291359.893939495</v>
       </c>
       <c r="CC2">
-        <v>107381.9624640991</v>
+        <v>1322082.677196147</v>
       </c>
       <c r="CD2">
-        <v>108935.9529095449</v>
+        <v>1352464.940920054</v>
       </c>
       <c r="CE2">
-        <v>110500.0467630421</v>
+        <v>1382313.096689173</v>
       </c>
       <c r="CF2">
-        <v>112023.9198768599</v>
+        <v>1411174.326358226</v>
       </c>
       <c r="CG2">
-        <v>113509.6443759411</v>
+        <v>1439554.088810155</v>
       </c>
       <c r="CH2">
-        <v>114969.0394084941</v>
+        <v>1468003.410972385</v>
       </c>
       <c r="CI2">
-        <v>116419.1942485548</v>
+        <v>1496928.278571191</v>
       </c>
       <c r="CJ2">
-        <v>117880.1585073201</v>
+        <v>1526601.223063577</v>
       </c>
       <c r="CK2">
-        <v>119365.1090800705</v>
+        <v>1556854.645331124</v>
       </c>
       <c r="CL2">
-        <v>120952.3996637689</v>
+        <v>1588333.434186924</v>
       </c>
       <c r="CM2">
-        <v>122707.4994626268</v>
+        <v>1621329.733375668</v>
       </c>
       <c r="CN2">
-        <v>124681.047048575</v>
+        <v>1656211.837078082</v>
       </c>
       <c r="CO2">
-        <v>126895.4806482657</v>
+        <v>1693382.021931161</v>
       </c>
     </row>
     <row r="3" spans="1:93">
@@ -2357,274 +2357,274 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>16.49064919837422</v>
+        <v>70.90938680416961</v>
       </c>
       <c r="E3">
-        <v>35.64995078749983</v>
+        <v>163.6113783021818</v>
       </c>
       <c r="F3">
-        <v>67.96291023567508</v>
+        <v>256.1458585442018</v>
       </c>
       <c r="G3">
-        <v>91.57076958304258</v>
+        <v>344.0115981242445</v>
       </c>
       <c r="H3">
-        <v>154.1246473089697</v>
+        <v>462.3970472210841</v>
       </c>
       <c r="I3">
-        <v>189.5516603575321</v>
+        <v>547.456520018712</v>
       </c>
       <c r="J3">
-        <v>229.1116487816705</v>
+        <v>702.2268436239577</v>
       </c>
       <c r="K3">
-        <v>274.6568463762956</v>
+        <v>855.921720525976</v>
       </c>
       <c r="L3">
-        <v>310.7057397897358</v>
+        <v>992.5483132227796</v>
       </c>
       <c r="M3">
-        <v>355.1827063205581</v>
+        <v>1118.256955497748</v>
       </c>
       <c r="N3">
-        <v>376.8405755496688</v>
+        <v>1388.777808993895</v>
       </c>
       <c r="O3">
-        <v>401.1778528584668</v>
+        <v>1552.265138426588</v>
       </c>
       <c r="P3">
-        <v>451.4279115784821</v>
+        <v>1881.117457048878</v>
       </c>
       <c r="Q3">
-        <v>504.4122440146788</v>
+        <v>2235.239664201325</v>
       </c>
       <c r="R3">
-        <v>560.3890818260586</v>
+        <v>2614.900964858818</v>
       </c>
       <c r="S3">
-        <v>711.0615494676842</v>
+        <v>3450.288162284417</v>
       </c>
       <c r="T3">
-        <v>869.5642115133347</v>
+        <v>4346.684565182606</v>
       </c>
       <c r="U3">
-        <v>1035.085237253698</v>
+        <v>5303.670087689713</v>
       </c>
       <c r="V3">
-        <v>1206.29804158565</v>
+        <v>6320.117947681396</v>
       </c>
       <c r="W3">
-        <v>1383.643403687857</v>
+        <v>7396.237315793207</v>
       </c>
       <c r="X3">
-        <v>1546.461179764037</v>
+        <v>8474.786821828679</v>
       </c>
       <c r="Y3">
-        <v>1710.727890470496</v>
+        <v>9609.474990488447</v>
       </c>
       <c r="Z3">
-        <v>1876.595786208921</v>
+        <v>10801.79856205362</v>
       </c>
       <c r="AA3">
-        <v>2044.557308593586</v>
+        <v>12053.56317265598</v>
       </c>
       <c r="AB3">
-        <v>2214.269342578784</v>
+        <v>13365.46208687672</v>
       </c>
       <c r="AC3">
-        <v>2263.481979377713</v>
+        <v>13967.76355290623</v>
       </c>
       <c r="AD3">
-        <v>2317.037515954223</v>
+        <v>14587.50536613471</v>
       </c>
       <c r="AE3">
-        <v>2378.839679563253</v>
+        <v>15223.72992751074</v>
       </c>
       <c r="AF3">
-        <v>2450.297419600075</v>
+        <v>15876.14565196884</v>
       </c>
       <c r="AG3">
-        <v>2532.127175344742</v>
+        <v>16550.03579188453</v>
       </c>
       <c r="AH3">
-        <v>2599.302997222941</v>
+        <v>16974.31677169396</v>
       </c>
       <c r="AI3">
-        <v>2661.690905935074</v>
+        <v>17407.3335083813</v>
       </c>
       <c r="AJ3">
-        <v>2723.608686883743</v>
+        <v>17847.47001633406</v>
       </c>
       <c r="AK3">
-        <v>2783.586113353244</v>
+        <v>18289.68881690028</v>
       </c>
       <c r="AL3">
-        <v>2840.474216266758</v>
+        <v>18748.58802498355</v>
       </c>
       <c r="AM3">
-        <v>2894.420352086326</v>
+        <v>19364.37568226259</v>
       </c>
       <c r="AN3">
-        <v>2952.594192037154</v>
+        <v>20024.1078182462</v>
       </c>
       <c r="AO3">
-        <v>3026.879921912224</v>
+        <v>20741.30942298915</v>
       </c>
       <c r="AP3">
-        <v>3120.13322844611</v>
+        <v>21547.17132942806</v>
       </c>
       <c r="AQ3">
-        <v>3238.421319519272</v>
+        <v>22470.63863997801</v>
       </c>
       <c r="AR3">
-        <v>3393.486242351385</v>
+        <v>23781.52657534413</v>
       </c>
       <c r="AS3">
-        <v>3574.524061397474</v>
+        <v>25242.02362195193</v>
       </c>
       <c r="AT3">
-        <v>3759.601119710926</v>
+        <v>26786.25552976633</v>
       </c>
       <c r="AU3">
-        <v>3943.772701927775</v>
+        <v>28398.13827212675</v>
       </c>
       <c r="AV3">
-        <v>4126.001047145883</v>
+        <v>30067.30291460014</v>
       </c>
       <c r="AW3">
-        <v>4303.960206786512</v>
+        <v>31831.60754376285</v>
       </c>
       <c r="AX3">
-        <v>4497.959593096091</v>
+        <v>33641.08120161585</v>
       </c>
       <c r="AY3">
-        <v>4689.019075173217</v>
+        <v>35490.21773883833</v>
       </c>
       <c r="AZ3">
-        <v>4870.680948161844</v>
+        <v>37336.72331360313</v>
       </c>
       <c r="BA3">
-        <v>5028.880466626249</v>
+        <v>39090.78353371818</v>
       </c>
       <c r="BB3">
-        <v>5147.582516179633</v>
+        <v>40595.00876137923</v>
       </c>
       <c r="BC3">
-        <v>5242.859955959721</v>
+        <v>41961.19725111565</v>
       </c>
       <c r="BD3">
-        <v>5340.314326472723</v>
+        <v>43313.49187279435</v>
       </c>
       <c r="BE3">
-        <v>5443.57831864745</v>
+        <v>44658.55979972718</v>
       </c>
       <c r="BF3">
-        <v>5549.124872201911</v>
+        <v>45967.03432765279</v>
       </c>
       <c r="BG3">
-        <v>5648.887346700039</v>
+        <v>47163.77668441243</v>
       </c>
       <c r="BH3">
-        <v>5743.362817323321</v>
+        <v>48314.80283488124</v>
       </c>
       <c r="BI3">
-        <v>5835.075399101831</v>
+        <v>49472.0329133601</v>
       </c>
       <c r="BJ3">
-        <v>5925.095955121654</v>
+        <v>50654.34873338219</v>
       </c>
       <c r="BK3">
-        <v>6014.101852183857</v>
+        <v>51885.93405355365</v>
       </c>
       <c r="BL3">
-        <v>6103.040894717722</v>
+        <v>53171.70466841108</v>
       </c>
       <c r="BM3">
-        <v>6199.453156696908</v>
+        <v>54542.03954098729</v>
       </c>
       <c r="BN3">
-        <v>6310.677426820111</v>
+        <v>55998.15287089057</v>
       </c>
       <c r="BO3">
-        <v>6442.680771737692</v>
+        <v>57573.44312631918</v>
       </c>
       <c r="BP3">
-        <v>6599.386900922143</v>
+        <v>59318.18065296608</v>
       </c>
       <c r="BQ3">
-        <v>6780.504031535369</v>
+        <v>61259.68759870239</v>
       </c>
       <c r="BR3">
-        <v>6981.211665481187</v>
+        <v>63379.95234353482</v>
       </c>
       <c r="BS3">
-        <v>7190.50427911444</v>
+        <v>65607.65700670505</v>
       </c>
       <c r="BT3">
-        <v>7400.884032393825</v>
+        <v>67913.14752315888</v>
       </c>
       <c r="BU3">
-        <v>7610.591798048009</v>
+        <v>70288.94707420605</v>
       </c>
       <c r="BV3">
-        <v>7819.555640004307</v>
+        <v>72715.24412009538</v>
       </c>
       <c r="BW3">
-        <v>8030.296085449725</v>
+        <v>75189.87257856836</v>
       </c>
       <c r="BX3">
-        <v>8238.127258187034</v>
+        <v>77679.95443722911</v>
       </c>
       <c r="BY3">
-        <v>8433.148055003627</v>
+        <v>80138.85186526299</v>
       </c>
       <c r="BZ3">
-        <v>8607.239825156841</v>
+        <v>82505.9526564383</v>
       </c>
       <c r="CA3">
-        <v>8756.083208700833</v>
+        <v>84726.58240375554</v>
       </c>
       <c r="CB3">
-        <v>8887.97361459093</v>
+        <v>86838.19631451489</v>
       </c>
       <c r="CC3">
-        <v>9015.305925859255</v>
+        <v>88901.78562917163</v>
       </c>
       <c r="CD3">
-        <v>9144.542681056371</v>
+        <v>90942.27638229063</v>
       </c>
       <c r="CE3">
-        <v>9274.520857325986</v>
+        <v>92946.67982053297</v>
       </c>
       <c r="CF3">
-        <v>9400.640804371465</v>
+        <v>94884.53421141267</v>
       </c>
       <c r="CG3">
-        <v>9523.07878628757</v>
+        <v>96789.92094431602</v>
       </c>
       <c r="CH3">
-        <v>9642.914500577181</v>
+        <v>98700.12356224401</v>
       </c>
       <c r="CI3">
-        <v>9761.709305826602</v>
+        <v>100642.6917519592</v>
       </c>
       <c r="CJ3">
-        <v>9881.295070536642</v>
+        <v>102636.2895521955</v>
       </c>
       <c r="CK3">
-        <v>10002.88163618903</v>
+        <v>104670.2329842644</v>
       </c>
       <c r="CL3">
-        <v>10133.61353154612</v>
+        <v>106788.6931400101</v>
       </c>
       <c r="CM3">
-        <v>10279.47478037906</v>
+        <v>109012.1468326458</v>
       </c>
       <c r="CN3">
-        <v>10445.09372751906</v>
+        <v>111365.6931796274</v>
       </c>
       <c r="CO3">
-        <v>10632.52086627257</v>
+        <v>113876.3940938157</v>
       </c>
     </row>
     <row r="4" spans="1:93">
@@ -2634,274 +2634,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>26474387.15107802</v>
+        <v>1624041.439607251</v>
       </c>
       <c r="E4">
-        <v>53251620.38058935</v>
+        <v>3082807.852041519</v>
       </c>
       <c r="F4">
-        <v>82627838.27938208</v>
+        <v>4356213.544599939</v>
       </c>
       <c r="G4">
-        <v>112095494.7226948</v>
+        <v>5833233.495613216</v>
       </c>
       <c r="H4">
-        <v>138928244.5435729</v>
+        <v>7456252.889375377</v>
       </c>
       <c r="I4">
-        <v>165247626.2197077</v>
+        <v>8998552.959445665</v>
       </c>
       <c r="J4">
-        <v>194275229.5026029</v>
+        <v>10675008.27082882</v>
       </c>
       <c r="K4">
-        <v>227123097.4189658</v>
+        <v>12211963.42275244</v>
       </c>
       <c r="L4">
-        <v>259748235.4222996</v>
+        <v>13737593.84860444</v>
       </c>
       <c r="M4">
-        <v>294453320.2633814</v>
+        <v>15771070.47440813</v>
       </c>
       <c r="N4">
-        <v>332010845.8894651</v>
+        <v>17695380.8304699</v>
       </c>
       <c r="O4">
-        <v>366851394.3349931</v>
+        <v>19592770.88268942</v>
       </c>
       <c r="P4">
-        <v>405536939.8205202</v>
+        <v>29486149.07233218</v>
       </c>
       <c r="Q4">
-        <v>445367929.0331577</v>
+        <v>39408903.33814329</v>
       </c>
       <c r="R4">
-        <v>486349253.8049408</v>
+        <v>49371279.39934646</v>
       </c>
       <c r="S4">
-        <v>531973992.1571416</v>
+        <v>80608079.14306714</v>
       </c>
       <c r="T4">
-        <v>578514361.3173496</v>
+        <v>111912442.7794668</v>
       </c>
       <c r="U4">
-        <v>625957944.9984325</v>
+        <v>143273092.6593462</v>
       </c>
       <c r="V4">
-        <v>674303011.2722706</v>
+        <v>174695546.111459</v>
       </c>
       <c r="W4">
-        <v>723549340.5117924</v>
+        <v>206190462.4729179</v>
       </c>
       <c r="X4">
-        <v>773965792.8590665</v>
+        <v>238612789.2077849</v>
       </c>
       <c r="Y4">
-        <v>825726707.2161291</v>
+        <v>271123340.60106</v>
       </c>
       <c r="Z4">
-        <v>878831895.7295491</v>
+        <v>303733761.46209</v>
       </c>
       <c r="AA4">
-        <v>933282190.5783923</v>
+        <v>336455460.6656348</v>
       </c>
       <c r="AB4">
-        <v>989076769.1921</v>
+        <v>369287764.6587135</v>
       </c>
       <c r="AC4">
-        <v>1044002524.077624</v>
+        <v>378151677.3502241</v>
       </c>
       <c r="AD4">
-        <v>1100277108.608358</v>
+        <v>387115654.0431815</v>
       </c>
       <c r="AE4">
-        <v>1157900778.554873</v>
+        <v>396187955.1114101</v>
       </c>
       <c r="AF4">
-        <v>1216874190.281985</v>
+        <v>405411169.4345365</v>
       </c>
       <c r="AG4">
-        <v>1277198000.515234</v>
+        <v>414830127.6910552</v>
       </c>
       <c r="AH4">
-        <v>1338508852.924226</v>
+        <v>417427139.1908871</v>
       </c>
       <c r="AI4">
-        <v>1401189427.789936</v>
+        <v>420015874.4492494</v>
       </c>
       <c r="AJ4">
-        <v>1465239821.883175</v>
+        <v>422567320.9093364</v>
       </c>
       <c r="AK4">
-        <v>1530662079.800085</v>
+        <v>425328480.384629</v>
       </c>
       <c r="AL4">
-        <v>1597459750.3224</v>
+        <v>428454575.7035628</v>
       </c>
       <c r="AM4">
-        <v>1665611100.2398</v>
+        <v>435217963.2252069</v>
       </c>
       <c r="AN4">
-        <v>1735126034.235605</v>
+        <v>442759934.8858905</v>
       </c>
       <c r="AO4">
-        <v>1806014640.768511</v>
+        <v>451351213.0668892</v>
       </c>
       <c r="AP4">
-        <v>1878281897.562559</v>
+        <v>461141559.9060352</v>
       </c>
       <c r="AQ4">
-        <v>1951940544.156499</v>
+        <v>472297963.0375217</v>
       </c>
       <c r="AR4">
-        <v>2026996876.000091</v>
+        <v>490120250.1485674</v>
       </c>
       <c r="AS4">
-        <v>2103431289.305809</v>
+        <v>509364389.7568227</v>
       </c>
       <c r="AT4">
-        <v>2181204646.924947</v>
+        <v>529525686.6889442</v>
       </c>
       <c r="AU4">
-        <v>2260307980.541422</v>
+        <v>550419664.5098878</v>
       </c>
       <c r="AV4">
-        <v>2340937762.462111</v>
+        <v>571872846.8874632</v>
       </c>
       <c r="AW4">
-        <v>2423034870.921518</v>
+        <v>595009333.8887759</v>
       </c>
       <c r="AX4">
-        <v>2506653049.756466</v>
+        <v>618302677.7633429</v>
       </c>
       <c r="AY4">
-        <v>2591681874.864342</v>
+        <v>641541796.6433481</v>
       </c>
       <c r="AZ4">
-        <v>2678109008.634986</v>
+        <v>664357485.1051595</v>
       </c>
       <c r="BA4">
-        <v>2765908664.041889</v>
+        <v>686212103.6440313</v>
       </c>
       <c r="BB4">
-        <v>2855101300.297238</v>
+        <v>705651404.9049456</v>
       </c>
       <c r="BC4">
-        <v>2945749248.323681</v>
+        <v>723784801.5128145</v>
       </c>
       <c r="BD4">
-        <v>3037893469.235024</v>
+        <v>741108581.4281245</v>
       </c>
       <c r="BE4">
-        <v>3131539228.818226</v>
+        <v>757670601.0770094</v>
       </c>
       <c r="BF4">
-        <v>3226683162.569171</v>
+        <v>773435195.7621065</v>
       </c>
       <c r="BG4">
-        <v>3323355809.038872</v>
+        <v>787989010.6116774</v>
       </c>
       <c r="BH4">
-        <v>3421601144.806213</v>
+        <v>802014528.9607304</v>
       </c>
       <c r="BI4">
-        <v>3521425875.164596</v>
+        <v>815736418.879007</v>
       </c>
       <c r="BJ4">
-        <v>3622833838.016314</v>
+        <v>829355911.1342468</v>
       </c>
       <c r="BK4">
-        <v>3725829789.386995</v>
+        <v>843087197.7710252</v>
       </c>
       <c r="BL4">
-        <v>3830439665.315538</v>
+        <v>857055055.2664411</v>
       </c>
       <c r="BM4">
-        <v>3936703015.562818</v>
+        <v>871681536.5755812</v>
       </c>
       <c r="BN4">
-        <v>4044628764.174807</v>
+        <v>887206635.029676</v>
       </c>
       <c r="BO4">
-        <v>4154225158.039793</v>
+        <v>903874684.8997005</v>
       </c>
       <c r="BP4">
-        <v>4265499426.066069</v>
+        <v>921919168.6990829</v>
       </c>
       <c r="BQ4">
-        <v>4378540648.495623</v>
+        <v>941465179.4032902</v>
       </c>
       <c r="BR4">
-        <v>4493359715.121324</v>
+        <v>962350250.7533549</v>
       </c>
       <c r="BS4">
-        <v>4609936977.607624</v>
+        <v>984192443.5767294</v>
       </c>
       <c r="BT4">
-        <v>4728258992.992784</v>
+        <v>1006767034.214463</v>
       </c>
       <c r="BU4">
-        <v>4848322274.433597</v>
+        <v>1029955619.830562</v>
       </c>
       <c r="BV4">
-        <v>4970185254.375905</v>
+        <v>1053504676.751171</v>
       </c>
       <c r="BW4">
-        <v>5093870416.905144</v>
+        <v>1077398159.637843</v>
       </c>
       <c r="BX4">
-        <v>5219368631.966689</v>
+        <v>1101413893.294446</v>
       </c>
       <c r="BY4">
-        <v>5346661602.317602</v>
+        <v>1125263616.480757</v>
       </c>
       <c r="BZ4">
-        <v>5475733697.771555</v>
+        <v>1148613373.732142</v>
       </c>
       <c r="CA4">
-        <v>5606640290.86299</v>
+        <v>1171012939.72052</v>
       </c>
       <c r="CB4">
-        <v>5739413330.677059</v>
+        <v>1192764394.441224</v>
       </c>
       <c r="CC4">
-        <v>5874072393.562181</v>
+        <v>1214199816.579886</v>
       </c>
       <c r="CD4">
-        <v>6010628567.756303</v>
+        <v>1235293742.980368</v>
       </c>
       <c r="CE4">
-        <v>6149082132.437318</v>
+        <v>1255989788.190544</v>
       </c>
       <c r="CF4">
-        <v>6289496320.885097</v>
+        <v>1275898851.426241</v>
       </c>
       <c r="CG4">
-        <v>6431898093.562163</v>
+        <v>1295428067.010746</v>
       </c>
       <c r="CH4">
-        <v>6576292213.208332</v>
+        <v>1314694217.465376</v>
       </c>
       <c r="CI4">
-        <v>6722683394.262053</v>
+        <v>1333816517.42617</v>
       </c>
       <c r="CJ4">
-        <v>6871076473.360871</v>
+        <v>1352911359.005562</v>
       </c>
       <c r="CK4">
-        <v>7021527420.135902</v>
+        <v>1371531764.12929</v>
       </c>
       <c r="CL4">
-        <v>7174078399.480854</v>
+        <v>1390398486.285221</v>
       </c>
       <c r="CM4">
-        <v>7328737679.422005</v>
+        <v>1409815420.520154</v>
       </c>
       <c r="CN4">
-        <v>7485511696.732807</v>
+        <v>1430019656.643445</v>
       </c>
       <c r="CO4">
-        <v>7644403597.194485</v>
+        <v>1451162353.185543</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2911,274 +2911,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1694797.891812964</v>
+        <v>2149532.838667813</v>
       </c>
       <c r="E5">
-        <v>2690780.992625034</v>
+        <v>3588867.259234717</v>
       </c>
       <c r="F5">
-        <v>3189979.649781743</v>
+        <v>4934060.409842861</v>
       </c>
       <c r="G5">
-        <v>3496767.173083417</v>
+        <v>6230224.160329678</v>
       </c>
       <c r="H5">
-        <v>3784327.426627539</v>
+        <v>7473558.413228918</v>
       </c>
       <c r="I5">
-        <v>3988325.544420689</v>
+        <v>9026489.507478934</v>
       </c>
       <c r="J5">
-        <v>4155291.479436501</v>
+        <v>10733848.69677471</v>
       </c>
       <c r="K5">
-        <v>4371038.231060011</v>
+        <v>12216728.53415881</v>
       </c>
       <c r="L5">
-        <v>4762802.923230359</v>
+        <v>13585743.11240486</v>
       </c>
       <c r="M5">
-        <v>5106175.370249647</v>
+        <v>15114122.78378315</v>
       </c>
       <c r="N5">
-        <v>5539332.966022053</v>
+        <v>16714972.79752183</v>
       </c>
       <c r="O5">
-        <v>6083217.175078595</v>
+        <v>18800938.30828665</v>
       </c>
       <c r="P5">
-        <v>9629181.033501904</v>
+        <v>35072014.43643486</v>
       </c>
       <c r="Q5">
-        <v>13256650.53713245</v>
+        <v>51356741.92881514</v>
       </c>
       <c r="R5">
-        <v>16968891.74753553</v>
+        <v>67659469.98892133</v>
       </c>
       <c r="S5">
-        <v>28953478.24674917</v>
+        <v>121787553.7855053</v>
       </c>
       <c r="T5">
-        <v>41187918.39256178</v>
+        <v>175945416.0435322</v>
       </c>
       <c r="U5">
-        <v>53677507.50840142</v>
+        <v>230140675.616155</v>
       </c>
       <c r="V5">
-        <v>66428124.73926293</v>
+        <v>284382359.9926808</v>
       </c>
       <c r="W5">
-        <v>79446103.32751846</v>
+        <v>338681206.2957787</v>
       </c>
       <c r="X5">
-        <v>91926026.34989586</v>
+        <v>395847919.7648774</v>
       </c>
       <c r="Y5">
-        <v>104452952.96609</v>
+        <v>453100597.0695216</v>
       </c>
       <c r="Z5">
-        <v>117031611.5437074</v>
+        <v>510459086.409471</v>
       </c>
       <c r="AA5">
-        <v>129666402.2146155</v>
+        <v>567948720.022669</v>
       </c>
       <c r="AB5">
-        <v>142361582.0253575</v>
+        <v>625602347.0311346</v>
       </c>
       <c r="AC5">
-        <v>144831297.9095675</v>
+        <v>641745366.3157949</v>
       </c>
       <c r="AD5">
-        <v>147371990.1213958</v>
+        <v>658152313.2751163</v>
       </c>
       <c r="AE5">
-        <v>149992442.3781651</v>
+        <v>674898199.898077</v>
       </c>
       <c r="AF5">
-        <v>152706327.4736248</v>
+        <v>692081497.0955384</v>
       </c>
       <c r="AG5">
-        <v>155534705.2275643</v>
+        <v>709830040.5841364</v>
       </c>
       <c r="AH5">
-        <v>156562141.7337372</v>
+        <v>715633259.5030129</v>
       </c>
       <c r="AI5">
-        <v>157778667.8662008</v>
+        <v>721821951.8056134</v>
       </c>
       <c r="AJ5">
-        <v>159241680.828199</v>
+        <v>728521792.2875614</v>
       </c>
       <c r="AK5">
-        <v>161022569.9369081</v>
+        <v>736495373.5511448</v>
       </c>
       <c r="AL5">
-        <v>163204978.2286434</v>
+        <v>746065394.1686285</v>
       </c>
       <c r="AM5">
-        <v>165881063.886362</v>
+        <v>763590350.4275104</v>
       </c>
       <c r="AN5">
-        <v>169145851.9909897</v>
+        <v>783672047.9950068</v>
       </c>
       <c r="AO5">
-        <v>173090000.2287329</v>
+        <v>806682931.3393341</v>
       </c>
       <c r="AP5">
-        <v>177791411.9819338</v>
+        <v>832955725.1967549</v>
       </c>
       <c r="AQ5">
-        <v>183306242.2209729</v>
+        <v>862746986.5025049</v>
       </c>
       <c r="AR5">
-        <v>189659972.390194</v>
+        <v>904401199.7157185</v>
       </c>
       <c r="AS5">
-        <v>196839431.6127934</v>
+        <v>949704406.2599452</v>
       </c>
       <c r="AT5">
-        <v>204787055.281999</v>
+        <v>998464703.1460408</v>
       </c>
       <c r="AU5">
-        <v>213398656.8929534</v>
+        <v>1050294731.177056</v>
       </c>
       <c r="AV5">
-        <v>223838628.8616038</v>
+        <v>1104616831.648466</v>
       </c>
       <c r="AW5">
-        <v>234980552.5405051</v>
+        <v>1163089512.624804</v>
       </c>
       <c r="AX5">
-        <v>246243663.9432806</v>
+        <v>1222458360.518278</v>
       </c>
       <c r="AY5">
-        <v>257410218.3030759</v>
+        <v>1281816713.509337</v>
       </c>
       <c r="AZ5">
-        <v>268271248.5720701</v>
+        <v>1340276829.481831</v>
       </c>
       <c r="BA5">
-        <v>278642683.6378223</v>
+        <v>1397037456.05542</v>
       </c>
       <c r="BB5">
-        <v>288187722.4067957</v>
+        <v>1450044119.103565</v>
       </c>
       <c r="BC5">
-        <v>296998035.6355058</v>
+        <v>1500221661.64231</v>
       </c>
       <c r="BD5">
-        <v>305026125.103828</v>
+        <v>1547309875.244449</v>
       </c>
       <c r="BE5">
-        <v>312276775.9425425</v>
+        <v>1591271572.872944</v>
       </c>
       <c r="BF5">
-        <v>318804367.5447301</v>
+        <v>1632290034.397773</v>
       </c>
       <c r="BG5">
-        <v>324518802.0856428</v>
+        <v>1669981096.654903</v>
       </c>
       <c r="BH5">
-        <v>329740902.9660996</v>
+        <v>1705674136.217741</v>
       </c>
       <c r="BI5">
-        <v>334626060.6825603</v>
+        <v>1740052661.516013</v>
       </c>
       <c r="BJ5">
-        <v>339339032.4381803</v>
+        <v>1773869768.143533</v>
       </c>
       <c r="BK5">
-        <v>344041068.8441172</v>
+        <v>1807891387.701199</v>
       </c>
       <c r="BL5">
-        <v>348738127.9120885</v>
+        <v>1842741499.184884</v>
       </c>
       <c r="BM5">
-        <v>353698947.7856988</v>
+        <v>1879181433.57492</v>
       </c>
       <c r="BN5">
-        <v>359027873.1689003</v>
+        <v>1917769799.243223</v>
       </c>
       <c r="BO5">
-        <v>364806244.2062038</v>
+        <v>1958953233.902853</v>
       </c>
       <c r="BP5">
-        <v>371093243.559113</v>
+        <v>2003056805.293558</v>
       </c>
       <c r="BQ5">
-        <v>377827913.7071957</v>
+        <v>2050301443.884968</v>
       </c>
       <c r="BR5">
-        <v>385125429.1270108</v>
+        <v>2100728038.04739</v>
       </c>
       <c r="BS5">
-        <v>392981039.2617887</v>
+        <v>2154271512.196861</v>
       </c>
       <c r="BT5">
-        <v>401368929.8275329</v>
+        <v>2210744194.96008</v>
       </c>
       <c r="BU5">
-        <v>410242834.1065961</v>
+        <v>2269848785.630133</v>
       </c>
       <c r="BV5">
-        <v>419440969.3712057</v>
+        <v>2330976169.351611</v>
       </c>
       <c r="BW5">
-        <v>428976965.4303362</v>
+        <v>2393885098.414274</v>
       </c>
       <c r="BX5">
-        <v>438754001.8057144</v>
+        <v>2458067629.341615</v>
       </c>
       <c r="BY5">
-        <v>448665347.1428421</v>
+        <v>2522995613.554513</v>
       </c>
       <c r="BZ5">
-        <v>458599804.9240287</v>
+        <v>2588149177.852767</v>
       </c>
       <c r="CA5">
-        <v>468347060.2709917</v>
+        <v>2652654001.653854</v>
       </c>
       <c r="CB5">
-        <v>477907921.6666954</v>
+        <v>2716479764.357222</v>
       </c>
       <c r="CC5">
-        <v>487197757.8882548</v>
+        <v>2779288802.072474</v>
       </c>
       <c r="CD5">
-        <v>496153300.7575956</v>
+        <v>2840842988.577366</v>
       </c>
       <c r="CE5">
-        <v>504736550.1554742</v>
+        <v>2901013683.517086</v>
       </c>
       <c r="CF5">
-        <v>512822400.0388463</v>
+        <v>2959114666.310999</v>
       </c>
       <c r="CG5">
-        <v>520539933.3682022</v>
+        <v>3015910165.80579</v>
       </c>
       <c r="CH5">
-        <v>527927610.7468673</v>
+        <v>3071593322.896263</v>
       </c>
       <c r="CI5">
-        <v>535043054.9536283</v>
+        <v>3126440818.679682</v>
       </c>
       <c r="CJ5">
-        <v>541957980.7491381</v>
+        <v>3180792646.665738</v>
       </c>
       <c r="CK5">
-        <v>548597005.9104897</v>
+        <v>3233976975.198013</v>
       </c>
       <c r="CL5">
-        <v>555199836.2818954</v>
+        <v>3287443606.939675</v>
       </c>
       <c r="CM5">
-        <v>561848848.9722863</v>
+        <v>3341583885.685968</v>
       </c>
       <c r="CN5">
-        <v>568620555.1231748</v>
+        <v>3396761943.14503</v>
       </c>
       <c r="CO5">
-        <v>575581941.5604986</v>
+        <v>3453296363.63629</v>
       </c>
     </row>
   </sheetData>
